--- a/PlotClock/Cinematica Inversa.xlsx
+++ b/PlotClock/Cinematica Inversa.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -80,6 +81,347 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$2:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4145</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4730</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5237</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5245</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5630</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5637</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5645</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6530</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6537</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$2:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>19351742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18481805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17711889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18421652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17921710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17271780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17851537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16991595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16511671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17151424</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16691509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16221571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16271345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15941418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15221520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15431262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14881353</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14561434</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14761174</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14311265</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13751385</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13871121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13501219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13171320</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12811087</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12581177</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12191289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12001023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11681150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10931255</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10951009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10851118</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9771231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41273984"/>
+        <c:axId val="41271680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41273984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41271680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41271680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41273984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,19 +711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K2" sqref="K2:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" customWidth="1"/>
+    <col min="11" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,231 +743,615 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>1771</v>
+        <v>1935</v>
       </c>
       <c r="E2">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1742</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(D2,E2)</f>
+        <v>19351742</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(B2,C2)</f>
+        <v>530</v>
+      </c>
+      <c r="H2">
+        <f>VALUE(G2)</f>
+        <v>530</v>
+      </c>
+      <c r="I2">
+        <f>VALUE(F2)</f>
+        <v>19351742</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("motor1[",B2,"][",C2,"] = ",D2,";")</f>
+        <v>motor1[5][30] = 1935;</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("motor2[",B2,"][",C2,"] = ",E2,";")</f>
+        <v>motor2[5][30] = 1742;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>1727</v>
+        <v>1848</v>
       </c>
       <c r="E3">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(D3,E3)</f>
+        <v>18481805</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE(B3,C3)</f>
+        <v>537</v>
+      </c>
+      <c r="H3">
+        <f>VALUE(G3)</f>
+        <v>537</v>
+      </c>
+      <c r="I3">
+        <f>VALUE(F3)</f>
+        <v>18481805</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K34" si="0">CONCATENATE("motor1[",B3,"][",C3,"] = ",D3,";")</f>
+        <v>motor1[5][37] = 1848;</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="K3:L34" si="1">CONCATENATE("motor2[",B3,"][",C3,"] = ",E3,";")</f>
+        <v>motor2[5][37] = 1805;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>1651</v>
+        <v>1771</v>
       </c>
       <c r="E4">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1889</v>
+      </c>
+      <c r="F4" t="str">
+        <f>CONCATENATE(D4,E4)</f>
+        <v>17711889</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE(B4,C4)</f>
+        <v>545</v>
+      </c>
+      <c r="H4">
+        <f>VALUE(G4)</f>
+        <v>545</v>
+      </c>
+      <c r="I4">
+        <f>VALUE(F4)</f>
+        <v>17711889</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[5][45] = 1771;</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[5][45] = 1889;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>1622</v>
+        <v>1842</v>
       </c>
       <c r="E5">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE(D5,E5)</f>
+        <v>18421652</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE(B5,C5)</f>
+        <v>1430</v>
+      </c>
+      <c r="H5">
+        <f>VALUE(G5)</f>
+        <v>1430</v>
+      </c>
+      <c r="I5">
+        <f>VALUE(F5)</f>
+        <v>18421652</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[14][30] = 1842;</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[14][30] = 1652;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>1522</v>
+        <v>1792</v>
       </c>
       <c r="E6">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1710</v>
+      </c>
+      <c r="F6" t="str">
+        <f>CONCATENATE(D6,E6)</f>
+        <v>17921710</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE(B6,C6)</f>
+        <v>1437</v>
+      </c>
+      <c r="H6">
+        <f>VALUE(G6)</f>
+        <v>1437</v>
+      </c>
+      <c r="I6">
+        <f>VALUE(F6)</f>
+        <v>17921710</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[14][37] = 1792;</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[14][37] = 1710;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7">
-        <v>1456</v>
+        <v>1727</v>
       </c>
       <c r="E7">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1780</v>
+      </c>
+      <c r="F7" t="str">
+        <f>CONCATENATE(D7,E7)</f>
+        <v>17271780</v>
+      </c>
+      <c r="G7" t="str">
+        <f>CONCATENATE(B7,C7)</f>
+        <v>1445</v>
+      </c>
+      <c r="H7">
+        <f>VALUE(G7)</f>
+        <v>1445</v>
+      </c>
+      <c r="I7">
+        <f>VALUE(F7)</f>
+        <v>17271780</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[14][45] = 1727;</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[14][45] = 1780;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>1375</v>
+        <v>1785</v>
       </c>
       <c r="E8">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1537</v>
+      </c>
+      <c r="F8" t="str">
+        <f>CONCATENATE(D8,E8)</f>
+        <v>17851537</v>
+      </c>
+      <c r="G8" t="str">
+        <f>CONCATENATE(B8,C8)</f>
+        <v>2330</v>
+      </c>
+      <c r="H8">
+        <f>VALUE(G8)</f>
+        <v>2330</v>
+      </c>
+      <c r="I8">
+        <f>VALUE(F8)</f>
+        <v>17851537</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[23][30] = 1785;</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[23][30] = 1537;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>1317</v>
+        <v>1699</v>
       </c>
       <c r="E9">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+      <c r="F9" t="str">
+        <f>CONCATENATE(D9,E9)</f>
+        <v>16991595</v>
+      </c>
+      <c r="G9" t="str">
+        <f>CONCATENATE(B9,C9)</f>
+        <v>2337</v>
+      </c>
+      <c r="H9">
+        <f>VALUE(G9)</f>
+        <v>2337</v>
+      </c>
+      <c r="I9">
+        <f>VALUE(F9)</f>
+        <v>16991595</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[23][37] = 1699;</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[23][37] = 1595;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10">
-        <v>1219</v>
+        <v>1651</v>
       </c>
       <c r="E10">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1671</v>
+      </c>
+      <c r="F10" t="str">
+        <f>CONCATENATE(D10,E10)</f>
+        <v>16511671</v>
+      </c>
+      <c r="G10" t="str">
+        <f>CONCATENATE(B10,C10)</f>
+        <v>2345</v>
+      </c>
+      <c r="H10">
+        <f>VALUE(G10)</f>
+        <v>2345</v>
+      </c>
+      <c r="I10">
+        <f>VALUE(F10)</f>
+        <v>16511671</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[23][45] = 1651;</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[23][45] = 1671;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1715</v>
+      </c>
+      <c r="E11">
+        <v>1424</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE(D11,E11)</f>
+        <v>17151424</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE(B11,C11)</f>
+        <v>2930</v>
+      </c>
+      <c r="H11">
+        <f>VALUE(G11)</f>
+        <v>2930</v>
+      </c>
+      <c r="I11">
+        <f>VALUE(F11)</f>
+        <v>17151424</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[29][30] = 1715;</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[29][30] = 1424;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1669</v>
+      </c>
+      <c r="E12">
+        <v>1509</v>
+      </c>
+      <c r="F12" t="str">
+        <f>CONCATENATE(D12,E12)</f>
+        <v>16691509</v>
+      </c>
+      <c r="G12" t="str">
+        <f>CONCATENATE(B12,C12)</f>
+        <v>2937</v>
+      </c>
+      <c r="H12">
+        <f>VALUE(G12)</f>
+        <v>2937</v>
+      </c>
+      <c r="I12">
+        <f>VALUE(F12)</f>
+        <v>16691509</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[29][37] = 1669;</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[29][37] = 1509;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
         <v>45</v>
       </c>
-      <c r="D11">
-        <v>1093</v>
-      </c>
-      <c r="E11">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>977</v>
-      </c>
-      <c r="E12">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>37</v>
-      </c>
       <c r="D13">
-        <v>1848</v>
+        <v>1622</v>
       </c>
       <c r="E13">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1571</v>
+      </c>
+      <c r="F13" t="str">
+        <f>CONCATENATE(D13,E13)</f>
+        <v>16221571</v>
+      </c>
+      <c r="G13" t="str">
+        <f>CONCATENATE(B13,C13)</f>
+        <v>2945</v>
+      </c>
+      <c r="H13">
+        <f>VALUE(G13)</f>
+        <v>2945</v>
+      </c>
+      <c r="I13">
+        <f>VALUE(F13)</f>
+        <v>16221571</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[29][45] = 1622;</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[29][45] = 1571;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>1792</v>
+        <v>1627</v>
       </c>
       <c r="E14">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+      <c r="F14" t="str">
+        <f>CONCATENATE(D14,E14)</f>
+        <v>16271345</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(B14,C14)</f>
+        <v>3530</v>
+      </c>
+      <c r="H14">
+        <f>VALUE(G14)</f>
+        <v>3530</v>
+      </c>
+      <c r="I14">
+        <f>VALUE(F14)</f>
+        <v>16271345</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[35][30] = 1627;</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[35][30] = 1345;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>37</v>
       </c>
       <c r="D15">
-        <v>1699</v>
+        <v>1594</v>
       </c>
       <c r="E15">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE(D15,E15)</f>
+        <v>15941418</v>
+      </c>
+      <c r="G15" t="str">
+        <f>CONCATENATE(B15,C15)</f>
+        <v>3537</v>
+      </c>
+      <c r="H15">
+        <f>VALUE(G15)</f>
+        <v>3537</v>
+      </c>
+      <c r="I15">
+        <f>VALUE(F15)</f>
+        <v>15941418</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[35][37] = 1594;</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[35][37] = 1418;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>1669</v>
+        <v>1522</v>
       </c>
       <c r="E16">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+      <c r="F16" t="str">
+        <f>CONCATENATE(D16,E16)</f>
+        <v>15221520</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(B16,C16)</f>
+        <v>3545</v>
+      </c>
+      <c r="H16">
+        <f>VALUE(G16)</f>
+        <v>3545</v>
+      </c>
+      <c r="I16">
+        <f>VALUE(F16)</f>
+        <v>15221520</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[35][45] = 1522;</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[35][45] = 1520;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>1594</v>
+        <v>1543</v>
       </c>
       <c r="E17">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+      <c r="F17" t="str">
+        <f>CONCATENATE(D17,E17)</f>
+        <v>15431262</v>
+      </c>
+      <c r="G17" t="str">
+        <f>CONCATENATE(B17,C17)</f>
+        <v>4130</v>
+      </c>
+      <c r="H17">
+        <f>VALUE(G17)</f>
+        <v>4130</v>
+      </c>
+      <c r="I17">
+        <f>VALUE(F17)</f>
+        <v>15431262</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[41][30] = 1543;</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[41][30] = 1262;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -635,237 +1364,646 @@
       <c r="E18">
         <v>1353</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f>CONCATENATE(D18,E18)</f>
+        <v>14881353</v>
+      </c>
+      <c r="G18" t="str">
+        <f>CONCATENATE(B18,C18)</f>
+        <v>4137</v>
+      </c>
+      <c r="H18">
+        <f>VALUE(G18)</f>
+        <v>4137</v>
+      </c>
+      <c r="I18">
+        <f>VALUE(F18)</f>
+        <v>14881353</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[41][37] = 1488;</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[41][37] = 1353;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>1456</v>
+      </c>
+      <c r="E19">
+        <v>1434</v>
+      </c>
+      <c r="F19" t="str">
+        <f>CONCATENATE(D19,E19)</f>
+        <v>14561434</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(B19,C19)</f>
+        <v>4145</v>
+      </c>
+      <c r="H19">
+        <f>VALUE(G19)</f>
+        <v>4145</v>
+      </c>
+      <c r="I19">
+        <f>VALUE(F19)</f>
+        <v>14561434</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[41][45] = 1456;</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[41][45] = 1434;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>47</v>
       </c>
-      <c r="C19">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>1431</v>
-      </c>
-      <c r="E19">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>52</v>
-      </c>
       <c r="C20">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>1350</v>
+        <v>1476</v>
       </c>
       <c r="E20">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+      <c r="F20" t="str">
+        <f>CONCATENATE(D20,E20)</f>
+        <v>14761174</v>
+      </c>
+      <c r="G20" t="str">
+        <f>CONCATENATE(B20,C20)</f>
+        <v>4730</v>
+      </c>
+      <c r="H20">
+        <f>VALUE(G20)</f>
+        <v>4730</v>
+      </c>
+      <c r="I20">
+        <f>VALUE(F20)</f>
+        <v>14761174</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[47][30] = 1476;</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[47][30] = 1174;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>37</v>
       </c>
       <c r="D21">
-        <v>1258</v>
+        <v>1431</v>
       </c>
       <c r="E21">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1265</v>
+      </c>
+      <c r="F21" t="str">
+        <f>CONCATENATE(D21,E21)</f>
+        <v>14311265</v>
+      </c>
+      <c r="G21" t="str">
+        <f>CONCATENATE(B21,C21)</f>
+        <v>4737</v>
+      </c>
+      <c r="H21">
+        <f>VALUE(G21)</f>
+        <v>4737</v>
+      </c>
+      <c r="I21">
+        <f>VALUE(F21)</f>
+        <v>14311265</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[47][37] = 1431;</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[47][37] = 1265;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>1375</v>
+      </c>
+      <c r="E22">
+        <v>1385</v>
+      </c>
+      <c r="F22" t="str">
+        <f>CONCATENATE(D22,E22)</f>
+        <v>13751385</v>
+      </c>
+      <c r="G22" t="str">
+        <f>CONCATENATE(B22,C22)</f>
+        <v>4745</v>
+      </c>
+      <c r="H22">
+        <f>VALUE(G22)</f>
+        <v>4745</v>
+      </c>
+      <c r="I22">
+        <f>VALUE(F22)</f>
+        <v>13751385</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[47][45] = 1375;</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[47][45] = 1385;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>1387</v>
+      </c>
+      <c r="E23">
+        <v>1121</v>
+      </c>
+      <c r="F23" t="str">
+        <f>CONCATENATE(D23,E23)</f>
+        <v>13871121</v>
+      </c>
+      <c r="G23" t="str">
+        <f>CONCATENATE(B23,C23)</f>
+        <v>5230</v>
+      </c>
+      <c r="H23">
+        <f>VALUE(G23)</f>
+        <v>5230</v>
+      </c>
+      <c r="I23">
+        <f>VALUE(F23)</f>
+        <v>13871121</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[52][30] = 1387;</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[52][30] = 1121;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24">
         <v>37</v>
       </c>
-      <c r="D22">
-        <v>1168</v>
-      </c>
-      <c r="E22">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>65</v>
-      </c>
-      <c r="C23">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>1085</v>
-      </c>
-      <c r="E23">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
       <c r="D24">
-        <v>1935</v>
+        <v>1350</v>
       </c>
       <c r="E24">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+      <c r="F24" t="str">
+        <f>CONCATENATE(D24,E24)</f>
+        <v>13501219</v>
+      </c>
+      <c r="G24" t="str">
+        <f>CONCATENATE(B24,C24)</f>
+        <v>5237</v>
+      </c>
+      <c r="H24">
+        <f>VALUE(G24)</f>
+        <v>5237</v>
+      </c>
+      <c r="I24">
+        <f>VALUE(F24)</f>
+        <v>13501219</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[52][37] = 1350;</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[52][37] = 1219;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>1842</v>
+        <v>1317</v>
       </c>
       <c r="E25">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+      <c r="F25" t="str">
+        <f>CONCATENATE(D25,E25)</f>
+        <v>13171320</v>
+      </c>
+      <c r="G25" t="str">
+        <f>CONCATENATE(B25,C25)</f>
+        <v>5245</v>
+      </c>
+      <c r="H25">
+        <f>VALUE(G25)</f>
+        <v>5245</v>
+      </c>
+      <c r="I25">
+        <f>VALUE(F25)</f>
+        <v>13171320</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[52][45] = 1317;</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[52][45] = 1320;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>30</v>
       </c>
       <c r="D26">
-        <v>1785</v>
+        <v>1281</v>
       </c>
       <c r="E26">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+      <c r="F26" t="str">
+        <f>CONCATENATE(D26,E26)</f>
+        <v>12811087</v>
+      </c>
+      <c r="G26" t="str">
+        <f>CONCATENATE(B26,C26)</f>
+        <v>5630</v>
+      </c>
+      <c r="H26">
+        <f>VALUE(G26)</f>
+        <v>5630</v>
+      </c>
+      <c r="I26">
+        <f>VALUE(F26)</f>
+        <v>12811087</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[56][30] = 1281;</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[56][30] = 1087;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>1715</v>
+        <v>1258</v>
       </c>
       <c r="E27">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1177</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE(D27,E27)</f>
+        <v>12581177</v>
+      </c>
+      <c r="G27" t="str">
+        <f>CONCATENATE(B27,C27)</f>
+        <v>5637</v>
+      </c>
+      <c r="H27">
+        <f>VALUE(G27)</f>
+        <v>5637</v>
+      </c>
+      <c r="I27">
+        <f>VALUE(F27)</f>
+        <v>12581177</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[56][37] = 1258;</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[56][37] = 1177;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>1627</v>
+        <v>1219</v>
       </c>
       <c r="E28">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+      <c r="F28" t="str">
+        <f>CONCATENATE(D28,E28)</f>
+        <v>12191289</v>
+      </c>
+      <c r="G28" t="str">
+        <f>CONCATENATE(B28,C28)</f>
+        <v>5645</v>
+      </c>
+      <c r="H28">
+        <f>VALUE(G28)</f>
+        <v>5645</v>
+      </c>
+      <c r="I28">
+        <f>VALUE(F28)</f>
+        <v>12191289</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[56][45] = 1219;</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[56][45] = 1289;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>30</v>
       </c>
       <c r="D29">
-        <v>1543</v>
+        <v>1200</v>
       </c>
       <c r="E29">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+      <c r="F29" t="str">
+        <f>CONCATENATE(D29,E29)</f>
+        <v>12001023</v>
+      </c>
+      <c r="G29" t="str">
+        <f>CONCATENATE(B29,C29)</f>
+        <v>6130</v>
+      </c>
+      <c r="H29">
+        <f>VALUE(G29)</f>
+        <v>6130</v>
+      </c>
+      <c r="I29">
+        <f>VALUE(F29)</f>
+        <v>12001023</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[61][30] = 1200;</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[61][30] = 1023;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>1476</v>
+        <v>1168</v>
       </c>
       <c r="E30">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+      <c r="F30" t="str">
+        <f>CONCATENATE(D30,E30)</f>
+        <v>11681150</v>
+      </c>
+      <c r="G30" t="str">
+        <f>CONCATENATE(B30,C30)</f>
+        <v>6137</v>
+      </c>
+      <c r="H30">
+        <f>VALUE(G30)</f>
+        <v>6137</v>
+      </c>
+      <c r="I30">
+        <f>VALUE(F30)</f>
+        <v>11681150</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[61][37] = 1168;</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[61][37] = 1150;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>1387</v>
+        <v>1093</v>
       </c>
       <c r="E31">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+      <c r="F31" t="str">
+        <f>CONCATENATE(D31,E31)</f>
+        <v>10931255</v>
+      </c>
+      <c r="G31" t="str">
+        <f>CONCATENATE(B31,C31)</f>
+        <v>6145</v>
+      </c>
+      <c r="H31">
+        <f>VALUE(G31)</f>
+        <v>6145</v>
+      </c>
+      <c r="I31">
+        <f>VALUE(F31)</f>
+        <v>10931255</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[61][45] = 1093;</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[61][45] = 1255;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32">
-        <v>1281</v>
+        <v>1095</v>
       </c>
       <c r="E32">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+      <c r="F32" t="str">
+        <f>CONCATENATE(D32,E32)</f>
+        <v>10951009</v>
+      </c>
+      <c r="G32" t="str">
+        <f>CONCATENATE(B32,C32)</f>
+        <v>6530</v>
+      </c>
+      <c r="H32">
+        <f>VALUE(G32)</f>
+        <v>6530</v>
+      </c>
+      <c r="I32">
+        <f>VALUE(F32)</f>
+        <v>10951009</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[65][30] = 1095;</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[65][30] = 1009;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>1200</v>
+        <v>1085</v>
       </c>
       <c r="E33">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+      <c r="F33" t="str">
+        <f>CONCATENATE(D33,E33)</f>
+        <v>10851118</v>
+      </c>
+      <c r="G33" t="str">
+        <f>CONCATENATE(B33,C33)</f>
+        <v>6537</v>
+      </c>
+      <c r="H33">
+        <f>VALUE(G33)</f>
+        <v>6537</v>
+      </c>
+      <c r="I33">
+        <f>VALUE(F33)</f>
+        <v>10851118</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[65][37] = 1085;</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[65][37] = 1118;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>65</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>1095</v>
+        <v>977</v>
       </c>
       <c r="E34">
-        <v>1009</v>
+        <v>1231</v>
+      </c>
+      <c r="F34" t="str">
+        <f>CONCATENATE(D34,E34)</f>
+        <v>9771231</v>
+      </c>
+      <c r="G34" t="str">
+        <f>CONCATENATE(B34,C34)</f>
+        <v>6545</v>
+      </c>
+      <c r="H34">
+        <f>VALUE(G34)</f>
+        <v>6545</v>
+      </c>
+      <c r="I34">
+        <f>VALUE(F34)</f>
+        <v>9771231</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>motor1[65][45] = 977;</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>motor2[65][45] = 1231;</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L14:O24">
-    <sortCondition ref="L14"/>
+  <sortState ref="B2:I34">
+    <sortCondition ref="H2:H34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/PlotClock/Cinematica Inversa.xlsx
+++ b/PlotClock/Cinematica Inversa.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -337,11 +337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41273984"/>
-        <c:axId val="41271680"/>
+        <c:axId val="53622272"/>
+        <c:axId val="53623808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41273984"/>
+        <c:axId val="53622272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,12 +351,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41271680"/>
+        <c:crossAx val="53623808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41271680"/>
+        <c:axId val="53623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41273984"/>
+        <c:crossAx val="53622272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     <col min="11" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -757,19 +757,19 @@
         <v>1742</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(D2,E2)</f>
+        <f t="shared" ref="F2:F34" si="0">CONCATENATE(D2,E2)</f>
         <v>19351742</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(B2,C2)</f>
+        <f t="shared" ref="G2:G34" si="1">CONCATENATE(B2,C2)</f>
         <v>530</v>
       </c>
       <c r="H2">
-        <f>VALUE(G2)</f>
+        <f t="shared" ref="H2:H34" si="2">VALUE(G2)</f>
         <v>530</v>
       </c>
       <c r="I2">
-        <f>VALUE(F2)</f>
+        <f t="shared" ref="I2:I34" si="3">VALUE(F2)</f>
         <v>19351742</v>
       </c>
       <c r="K2" t="str">
@@ -780,8 +780,12 @@
         <f>CONCATENATE("motor2[",B2,"][",C2,"] = ",E2,";")</f>
         <v>motor2[5][30] = 1742;</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,"));")</f>
+        <v>listaPares.add(new Par(5,30));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>5</v>
       </c>
@@ -795,31 +799,35 @@
         <v>1805</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(D3,E3)</f>
+        <f t="shared" si="0"/>
         <v>18481805</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE(B3,C3)</f>
+        <f t="shared" si="1"/>
         <v>537</v>
       </c>
       <c r="H3">
-        <f>VALUE(G3)</f>
+        <f t="shared" si="2"/>
         <v>537</v>
       </c>
       <c r="I3">
-        <f>VALUE(F3)</f>
+        <f t="shared" si="3"/>
         <v>18481805</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K34" si="0">CONCATENATE("motor1[",B3,"][",C3,"] = ",D3,";")</f>
+        <f t="shared" ref="K3:K34" si="4">CONCATENATE("motor1[",B3,"][",C3,"] = ",D3,";")</f>
         <v>motor1[5][37] = 1848;</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="K3:L34" si="1">CONCATENATE("motor2[",B3,"][",C3,"] = ",E3,";")</f>
+        <f t="shared" ref="L3:L34" si="5">CONCATENATE("motor2[",B3,"][",C3,"] = ",E3,";")</f>
         <v>motor2[5][37] = 1805;</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N34" si="6">CONCATENATE("listaPares.add(new Par(",B3,",",C3,"));")</f>
+        <v>listaPares.add(new Par(5,37));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -833,31 +841,35 @@
         <v>1889</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(D4,E4)</f>
+        <f t="shared" si="0"/>
         <v>17711889</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE(B4,C4)</f>
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="H4">
-        <f>VALUE(G4)</f>
+        <f t="shared" si="2"/>
         <v>545</v>
       </c>
       <c r="I4">
-        <f>VALUE(F4)</f>
+        <f t="shared" si="3"/>
         <v>17711889</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[5][45] = 1771;</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[5][45] = 1889;</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(5,45));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>14</v>
       </c>
@@ -871,31 +883,35 @@
         <v>1652</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(D5,E5)</f>
+        <f t="shared" si="0"/>
         <v>18421652</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE(B5,C5)</f>
+        <f t="shared" si="1"/>
         <v>1430</v>
       </c>
       <c r="H5">
-        <f>VALUE(G5)</f>
+        <f t="shared" si="2"/>
         <v>1430</v>
       </c>
       <c r="I5">
-        <f>VALUE(F5)</f>
+        <f t="shared" si="3"/>
         <v>18421652</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[14][30] = 1842;</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[14][30] = 1652;</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(14,30));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14</v>
       </c>
@@ -909,31 +925,35 @@
         <v>1710</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(D6,E6)</f>
+        <f t="shared" si="0"/>
         <v>17921710</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE(B6,C6)</f>
+        <f t="shared" si="1"/>
         <v>1437</v>
       </c>
       <c r="H6">
-        <f>VALUE(G6)</f>
+        <f t="shared" si="2"/>
         <v>1437</v>
       </c>
       <c r="I6">
-        <f>VALUE(F6)</f>
+        <f t="shared" si="3"/>
         <v>17921710</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[14][37] = 1792;</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[14][37] = 1710;</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(14,37));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14</v>
       </c>
@@ -947,31 +967,35 @@
         <v>1780</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(D7,E7)</f>
+        <f t="shared" si="0"/>
         <v>17271780</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE(B7,C7)</f>
+        <f t="shared" si="1"/>
         <v>1445</v>
       </c>
       <c r="H7">
-        <f>VALUE(G7)</f>
+        <f t="shared" si="2"/>
         <v>1445</v>
       </c>
       <c r="I7">
-        <f>VALUE(F7)</f>
+        <f t="shared" si="3"/>
         <v>17271780</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[14][45] = 1727;</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[14][45] = 1780;</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(14,45));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>23</v>
       </c>
@@ -985,31 +1009,35 @@
         <v>1537</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(D8,E8)</f>
+        <f t="shared" si="0"/>
         <v>17851537</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE(B8,C8)</f>
+        <f t="shared" si="1"/>
         <v>2330</v>
       </c>
       <c r="H8">
-        <f>VALUE(G8)</f>
+        <f t="shared" si="2"/>
         <v>2330</v>
       </c>
       <c r="I8">
-        <f>VALUE(F8)</f>
+        <f t="shared" si="3"/>
         <v>17851537</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[23][30] = 1785;</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[23][30] = 1537;</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(23,30));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>23</v>
       </c>
@@ -1023,31 +1051,35 @@
         <v>1595</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>16991595</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE(B9,C9)</f>
+        <f t="shared" si="1"/>
         <v>2337</v>
       </c>
       <c r="H9">
-        <f>VALUE(G9)</f>
+        <f t="shared" si="2"/>
         <v>2337</v>
       </c>
       <c r="I9">
-        <f>VALUE(F9)</f>
+        <f t="shared" si="3"/>
         <v>16991595</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[23][37] = 1699;</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[23][37] = 1595;</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(23,37));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>23</v>
       </c>
@@ -1061,31 +1093,35 @@
         <v>1671</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(D10,E10)</f>
+        <f t="shared" si="0"/>
         <v>16511671</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE(B10,C10)</f>
+        <f t="shared" si="1"/>
         <v>2345</v>
       </c>
       <c r="H10">
-        <f>VALUE(G10)</f>
+        <f t="shared" si="2"/>
         <v>2345</v>
       </c>
       <c r="I10">
-        <f>VALUE(F10)</f>
+        <f t="shared" si="3"/>
         <v>16511671</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[23][45] = 1651;</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[23][45] = 1671;</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(23,45));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>29</v>
       </c>
@@ -1099,31 +1135,35 @@
         <v>1424</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(D11,E11)</f>
+        <f t="shared" si="0"/>
         <v>17151424</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE(B11,C11)</f>
+        <f t="shared" si="1"/>
         <v>2930</v>
       </c>
       <c r="H11">
-        <f>VALUE(G11)</f>
+        <f t="shared" si="2"/>
         <v>2930</v>
       </c>
       <c r="I11">
-        <f>VALUE(F11)</f>
+        <f t="shared" si="3"/>
         <v>17151424</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[29][30] = 1715;</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[29][30] = 1424;</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(29,30));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>29</v>
       </c>
@@ -1137,31 +1177,35 @@
         <v>1509</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(D12,E12)</f>
+        <f t="shared" si="0"/>
         <v>16691509</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE(B12,C12)</f>
+        <f t="shared" si="1"/>
         <v>2937</v>
       </c>
       <c r="H12">
-        <f>VALUE(G12)</f>
+        <f t="shared" si="2"/>
         <v>2937</v>
       </c>
       <c r="I12">
-        <f>VALUE(F12)</f>
+        <f t="shared" si="3"/>
         <v>16691509</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[29][37] = 1669;</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[29][37] = 1509;</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(29,37));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>29</v>
       </c>
@@ -1175,31 +1219,35 @@
         <v>1571</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(D13,E13)</f>
+        <f t="shared" si="0"/>
         <v>16221571</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE(B13,C13)</f>
+        <f t="shared" si="1"/>
         <v>2945</v>
       </c>
       <c r="H13">
-        <f>VALUE(G13)</f>
+        <f t="shared" si="2"/>
         <v>2945</v>
       </c>
       <c r="I13">
-        <f>VALUE(F13)</f>
+        <f t="shared" si="3"/>
         <v>16221571</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[29][45] = 1622;</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[29][45] = 1571;</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(29,45));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>35</v>
       </c>
@@ -1213,31 +1261,35 @@
         <v>1345</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(D14,E14)</f>
+        <f t="shared" si="0"/>
         <v>16271345</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE(B14,C14)</f>
+        <f t="shared" si="1"/>
         <v>3530</v>
       </c>
       <c r="H14">
-        <f>VALUE(G14)</f>
+        <f t="shared" si="2"/>
         <v>3530</v>
       </c>
       <c r="I14">
-        <f>VALUE(F14)</f>
+        <f t="shared" si="3"/>
         <v>16271345</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[35][30] = 1627;</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[35][30] = 1345;</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(35,30));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>35</v>
       </c>
@@ -1251,31 +1303,35 @@
         <v>1418</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(D15,E15)</f>
+        <f t="shared" si="0"/>
         <v>15941418</v>
       </c>
       <c r="G15" t="str">
-        <f>CONCATENATE(B15,C15)</f>
+        <f t="shared" si="1"/>
         <v>3537</v>
       </c>
       <c r="H15">
-        <f>VALUE(G15)</f>
+        <f t="shared" si="2"/>
         <v>3537</v>
       </c>
       <c r="I15">
-        <f>VALUE(F15)</f>
+        <f t="shared" si="3"/>
         <v>15941418</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[35][37] = 1594;</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[35][37] = 1418;</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(35,37));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>35</v>
       </c>
@@ -1289,31 +1345,35 @@
         <v>1520</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(D16,E16)</f>
+        <f t="shared" si="0"/>
         <v>15221520</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE(B16,C16)</f>
+        <f t="shared" si="1"/>
         <v>3545</v>
       </c>
       <c r="H16">
-        <f>VALUE(G16)</f>
+        <f t="shared" si="2"/>
         <v>3545</v>
       </c>
       <c r="I16">
-        <f>VALUE(F16)</f>
+        <f t="shared" si="3"/>
         <v>15221520</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[35][45] = 1522;</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[35][45] = 1520;</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(35,45));</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>41</v>
       </c>
@@ -1327,31 +1387,35 @@
         <v>1262</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(D17,E17)</f>
+        <f t="shared" si="0"/>
         <v>15431262</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE(B17,C17)</f>
+        <f t="shared" si="1"/>
         <v>4130</v>
       </c>
       <c r="H17">
-        <f>VALUE(G17)</f>
+        <f t="shared" si="2"/>
         <v>4130</v>
       </c>
       <c r="I17">
-        <f>VALUE(F17)</f>
+        <f t="shared" si="3"/>
         <v>15431262</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[41][30] = 1543;</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[41][30] = 1262;</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(41,30));</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>41</v>
       </c>
@@ -1365,31 +1429,35 @@
         <v>1353</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(D18,E18)</f>
+        <f t="shared" si="0"/>
         <v>14881353</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE(B18,C18)</f>
+        <f t="shared" si="1"/>
         <v>4137</v>
       </c>
       <c r="H18">
-        <f>VALUE(G18)</f>
+        <f t="shared" si="2"/>
         <v>4137</v>
       </c>
       <c r="I18">
-        <f>VALUE(F18)</f>
+        <f t="shared" si="3"/>
         <v>14881353</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[41][37] = 1488;</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[41][37] = 1353;</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(41,37));</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>41</v>
       </c>
@@ -1403,31 +1471,35 @@
         <v>1434</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(D19,E19)</f>
+        <f t="shared" si="0"/>
         <v>14561434</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE(B19,C19)</f>
+        <f t="shared" si="1"/>
         <v>4145</v>
       </c>
       <c r="H19">
-        <f>VALUE(G19)</f>
+        <f t="shared" si="2"/>
         <v>4145</v>
       </c>
       <c r="I19">
-        <f>VALUE(F19)</f>
+        <f t="shared" si="3"/>
         <v>14561434</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[41][45] = 1456;</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[41][45] = 1434;</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(41,45));</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>47</v>
       </c>
@@ -1441,31 +1513,35 @@
         <v>1174</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(D20,E20)</f>
+        <f t="shared" si="0"/>
         <v>14761174</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE(B20,C20)</f>
+        <f t="shared" si="1"/>
         <v>4730</v>
       </c>
       <c r="H20">
-        <f>VALUE(G20)</f>
+        <f t="shared" si="2"/>
         <v>4730</v>
       </c>
       <c r="I20">
-        <f>VALUE(F20)</f>
+        <f t="shared" si="3"/>
         <v>14761174</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[47][30] = 1476;</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[47][30] = 1174;</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(47,30));</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>47</v>
       </c>
@@ -1479,31 +1555,35 @@
         <v>1265</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(D21,E21)</f>
+        <f t="shared" si="0"/>
         <v>14311265</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE(B21,C21)</f>
+        <f t="shared" si="1"/>
         <v>4737</v>
       </c>
       <c r="H21">
-        <f>VALUE(G21)</f>
+        <f t="shared" si="2"/>
         <v>4737</v>
       </c>
       <c r="I21">
-        <f>VALUE(F21)</f>
+        <f t="shared" si="3"/>
         <v>14311265</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[47][37] = 1431;</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[47][37] = 1265;</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(47,37));</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>47</v>
       </c>
@@ -1517,31 +1597,35 @@
         <v>1385</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE(D22,E22)</f>
+        <f t="shared" si="0"/>
         <v>13751385</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE(B22,C22)</f>
+        <f t="shared" si="1"/>
         <v>4745</v>
       </c>
       <c r="H22">
-        <f>VALUE(G22)</f>
+        <f t="shared" si="2"/>
         <v>4745</v>
       </c>
       <c r="I22">
-        <f>VALUE(F22)</f>
+        <f t="shared" si="3"/>
         <v>13751385</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[47][45] = 1375;</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[47][45] = 1385;</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N22" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(47,45));</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>52</v>
       </c>
@@ -1555,31 +1639,35 @@
         <v>1121</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE(D23,E23)</f>
+        <f t="shared" si="0"/>
         <v>13871121</v>
       </c>
       <c r="G23" t="str">
-        <f>CONCATENATE(B23,C23)</f>
+        <f t="shared" si="1"/>
         <v>5230</v>
       </c>
       <c r="H23">
-        <f>VALUE(G23)</f>
+        <f t="shared" si="2"/>
         <v>5230</v>
       </c>
       <c r="I23">
-        <f>VALUE(F23)</f>
+        <f t="shared" si="3"/>
         <v>13871121</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[52][30] = 1387;</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[52][30] = 1121;</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N23" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(52,30));</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>52</v>
       </c>
@@ -1593,31 +1681,35 @@
         <v>1219</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE(D24,E24)</f>
+        <f t="shared" si="0"/>
         <v>13501219</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE(B24,C24)</f>
+        <f t="shared" si="1"/>
         <v>5237</v>
       </c>
       <c r="H24">
-        <f>VALUE(G24)</f>
+        <f t="shared" si="2"/>
         <v>5237</v>
       </c>
       <c r="I24">
-        <f>VALUE(F24)</f>
+        <f t="shared" si="3"/>
         <v>13501219</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[52][37] = 1350;</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[52][37] = 1219;</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(52,37));</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>52</v>
       </c>
@@ -1631,31 +1723,35 @@
         <v>1320</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE(D25,E25)</f>
+        <f t="shared" si="0"/>
         <v>13171320</v>
       </c>
       <c r="G25" t="str">
-        <f>CONCATENATE(B25,C25)</f>
+        <f t="shared" si="1"/>
         <v>5245</v>
       </c>
       <c r="H25">
-        <f>VALUE(G25)</f>
+        <f t="shared" si="2"/>
         <v>5245</v>
       </c>
       <c r="I25">
-        <f>VALUE(F25)</f>
+        <f t="shared" si="3"/>
         <v>13171320</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[52][45] = 1317;</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[52][45] = 1320;</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(52,45));</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>56</v>
       </c>
@@ -1669,31 +1765,35 @@
         <v>1087</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE(D26,E26)</f>
+        <f t="shared" si="0"/>
         <v>12811087</v>
       </c>
       <c r="G26" t="str">
-        <f>CONCATENATE(B26,C26)</f>
+        <f t="shared" si="1"/>
         <v>5630</v>
       </c>
       <c r="H26">
-        <f>VALUE(G26)</f>
+        <f t="shared" si="2"/>
         <v>5630</v>
       </c>
       <c r="I26">
-        <f>VALUE(F26)</f>
+        <f t="shared" si="3"/>
         <v>12811087</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[56][30] = 1281;</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[56][30] = 1087;</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N26" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(56,30));</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>56</v>
       </c>
@@ -1707,31 +1807,35 @@
         <v>1177</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE(D27,E27)</f>
+        <f t="shared" si="0"/>
         <v>12581177</v>
       </c>
       <c r="G27" t="str">
-        <f>CONCATENATE(B27,C27)</f>
+        <f t="shared" si="1"/>
         <v>5637</v>
       </c>
       <c r="H27">
-        <f>VALUE(G27)</f>
+        <f t="shared" si="2"/>
         <v>5637</v>
       </c>
       <c r="I27">
-        <f>VALUE(F27)</f>
+        <f t="shared" si="3"/>
         <v>12581177</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[56][37] = 1258;</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[56][37] = 1177;</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N27" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(56,37));</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>56</v>
       </c>
@@ -1745,31 +1849,35 @@
         <v>1289</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE(D28,E28)</f>
+        <f t="shared" si="0"/>
         <v>12191289</v>
       </c>
       <c r="G28" t="str">
-        <f>CONCATENATE(B28,C28)</f>
+        <f t="shared" si="1"/>
         <v>5645</v>
       </c>
       <c r="H28">
-        <f>VALUE(G28)</f>
+        <f t="shared" si="2"/>
         <v>5645</v>
       </c>
       <c r="I28">
-        <f>VALUE(F28)</f>
+        <f t="shared" si="3"/>
         <v>12191289</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[56][45] = 1219;</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[56][45] = 1289;</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N28" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(56,45));</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>61</v>
       </c>
@@ -1783,31 +1891,35 @@
         <v>1023</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE(D29,E29)</f>
+        <f t="shared" si="0"/>
         <v>12001023</v>
       </c>
       <c r="G29" t="str">
-        <f>CONCATENATE(B29,C29)</f>
+        <f t="shared" si="1"/>
         <v>6130</v>
       </c>
       <c r="H29">
-        <f>VALUE(G29)</f>
+        <f t="shared" si="2"/>
         <v>6130</v>
       </c>
       <c r="I29">
-        <f>VALUE(F29)</f>
+        <f t="shared" si="3"/>
         <v>12001023</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[61][30] = 1200;</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[61][30] = 1023;</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N29" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(61,30));</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>61</v>
       </c>
@@ -1821,31 +1933,35 @@
         <v>1150</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE(D30,E30)</f>
+        <f t="shared" si="0"/>
         <v>11681150</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE(B30,C30)</f>
+        <f t="shared" si="1"/>
         <v>6137</v>
       </c>
       <c r="H30">
-        <f>VALUE(G30)</f>
+        <f t="shared" si="2"/>
         <v>6137</v>
       </c>
       <c r="I30">
-        <f>VALUE(F30)</f>
+        <f t="shared" si="3"/>
         <v>11681150</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[61][37] = 1168;</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[61][37] = 1150;</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N30" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(61,37));</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>61</v>
       </c>
@@ -1859,31 +1975,35 @@
         <v>1255</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE(D31,E31)</f>
+        <f t="shared" si="0"/>
         <v>10931255</v>
       </c>
       <c r="G31" t="str">
-        <f>CONCATENATE(B31,C31)</f>
+        <f t="shared" si="1"/>
         <v>6145</v>
       </c>
       <c r="H31">
-        <f>VALUE(G31)</f>
+        <f t="shared" si="2"/>
         <v>6145</v>
       </c>
       <c r="I31">
-        <f>VALUE(F31)</f>
+        <f t="shared" si="3"/>
         <v>10931255</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[61][45] = 1093;</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[61][45] = 1255;</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(61,45));</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>65</v>
       </c>
@@ -1897,31 +2017,35 @@
         <v>1009</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE(D32,E32)</f>
+        <f t="shared" si="0"/>
         <v>10951009</v>
       </c>
       <c r="G32" t="str">
-        <f>CONCATENATE(B32,C32)</f>
+        <f t="shared" si="1"/>
         <v>6530</v>
       </c>
       <c r="H32">
-        <f>VALUE(G32)</f>
+        <f t="shared" si="2"/>
         <v>6530</v>
       </c>
       <c r="I32">
-        <f>VALUE(F32)</f>
+        <f t="shared" si="3"/>
         <v>10951009</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[65][30] = 1095;</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[65][30] = 1009;</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N32" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(65,30));</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>65</v>
       </c>
@@ -1935,31 +2059,35 @@
         <v>1118</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE(D33,E33)</f>
+        <f t="shared" si="0"/>
         <v>10851118</v>
       </c>
       <c r="G33" t="str">
-        <f>CONCATENATE(B33,C33)</f>
+        <f t="shared" si="1"/>
         <v>6537</v>
       </c>
       <c r="H33">
-        <f>VALUE(G33)</f>
+        <f t="shared" si="2"/>
         <v>6537</v>
       </c>
       <c r="I33">
-        <f>VALUE(F33)</f>
+        <f t="shared" si="3"/>
         <v>10851118</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[65][37] = 1085;</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[65][37] = 1118;</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(65,37));</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>65</v>
       </c>
@@ -1973,28 +2101,32 @@
         <v>1231</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE(D34,E34)</f>
+        <f t="shared" si="0"/>
         <v>9771231</v>
       </c>
       <c r="G34" t="str">
-        <f>CONCATENATE(B34,C34)</f>
+        <f t="shared" si="1"/>
         <v>6545</v>
       </c>
       <c r="H34">
-        <f>VALUE(G34)</f>
+        <f t="shared" si="2"/>
         <v>6545</v>
       </c>
       <c r="I34">
-        <f>VALUE(F34)</f>
+        <f t="shared" si="3"/>
         <v>9771231</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>motor1[65][45] = 977;</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>motor2[65][45] = 1231;</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="6"/>
+        <v>listaPares.add(new Par(65,45));</v>
       </c>
     </row>
   </sheetData>

--- a/PlotClock/Cinematica Inversa.xlsx
+++ b/PlotClock/Cinematica Inversa.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Inicial" sheetId="1" r:id="rId1"/>
+    <sheet name="Invertido" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="6">
   <si>
     <t>Plot</t>
   </si>
@@ -50,12 +49,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,10 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,7 +122,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$D$2,Hoja1!$D$5,Hoja1!$D$8,Hoja1!$D$11,Hoja1!$D$14,Hoja1!$D$17,Hoja1!$D$20,Hoja1!$D$23,Hoja1!$D$26,Hoja1!$D$29,Hoja1!$D$32)</c:f>
+              <c:f>(Inicial!$D$2,Inicial!$D$5,Inicial!$D$8,Inicial!$D$11,Inicial!$D$14,Inicial!$D$17,Inicial!$D$20,Inicial!$D$23,Inicial!$D$26,Inicial!$D$29,Inicial!$D$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -166,7 +172,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$E$2,Hoja1!$E$5,Hoja1!$E$8,Hoja1!$E$11,Hoja1!$E$14,Hoja1!$E$17,Hoja1!$E$20,Hoja1!$E$23,Hoja1!$E$26,Hoja1!$E$29,Hoja1!$E$32)</c:f>
+              <c:f>(Inicial!$E$2,Inicial!$E$5,Inicial!$E$8,Inicial!$E$11,Inicial!$E$14,Inicial!$E$17,Inicial!$E$20,Inicial!$E$23,Inicial!$E$26,Inicial!$E$29,Inicial!$E$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -218,11 +224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74409472"/>
-        <c:axId val="74411008"/>
+        <c:axId val="81117568"/>
+        <c:axId val="81119104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74409472"/>
+        <c:axId val="81117568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -231,7 +237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74411008"/>
+        <c:crossAx val="81119104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -239,7 +245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74411008"/>
+        <c:axId val="81119104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -250,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74409472"/>
+        <c:crossAx val="81117568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -295,7 +301,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$D$3,Hoja1!$D$6,Hoja1!$D$9,Hoja1!$D$12,Hoja1!$D$15,Hoja1!$D$18,Hoja1!$D$21,Hoja1!$D$24,Hoja1!$D$27,Hoja1!$D$30,Hoja1!$D$33)</c:f>
+              <c:f>(Inicial!$D$3,Inicial!$D$6,Inicial!$D$9,Inicial!$D$12,Inicial!$D$15,Inicial!$D$18,Inicial!$D$21,Inicial!$D$24,Inicial!$D$27,Inicial!$D$30,Inicial!$D$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -345,7 +351,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$E$3,Hoja1!$E$6,Hoja1!$E$9,Hoja1!$E$12,Hoja1!$E$15,Hoja1!$E$18,Hoja1!$E$21,Hoja1!$E$24,Hoja1!$E$27,Hoja1!$E$30,Hoja1!$E$33)</c:f>
+              <c:f>(Inicial!$E$3,Inicial!$E$6,Inicial!$E$9,Inicial!$E$12,Inicial!$E$15,Inicial!$E$18,Inicial!$E$21,Inicial!$E$24,Inicial!$E$27,Inicial!$E$30,Inicial!$E$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -397,11 +403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67483136"/>
-        <c:axId val="67485056"/>
+        <c:axId val="65091456"/>
+        <c:axId val="65092992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67483136"/>
+        <c:axId val="65091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67485056"/>
+        <c:crossAx val="65092992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -418,7 +424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67485056"/>
+        <c:axId val="65092992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,7 +435,932 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67483136"/>
+        <c:crossAx val="65091456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80318464"/>
+        <c:axId val="80321152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80318464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80321152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80321152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80318464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$M$13:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$N$13:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="71391488"/>
+        <c:axId val="83443712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71391488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83443712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83443712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71391488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$M$24:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$N$24:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50147712"/>
+        <c:axId val="50149248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50147712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50149248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50149248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50147712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$M$35:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$N$35:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66443136"/>
+        <c:axId val="66444672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66443136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66444672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66444672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66443136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9179790026246719E-2"/>
+                  <c:y val="-8.9014654418197725E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$M$46:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.656867891513561E-2"/>
+                  <c:y val="5.0254811898512684E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Invertido!$N$46:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69477888"/>
+        <c:axId val="69501312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69477888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69501312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69501312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69477888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -450,13 +1381,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -480,13 +1411,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -503,6 +1434,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -798,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,11 +1897,10 @@
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -851,15 +1936,12 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,",",G2,H2,G2,",",D2,",",E2,"));")</f>
+      <c r="H2" t="str">
+        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,",",G2,A2,G2,",",D2,",",E2,"));")</f>
         <v>listaPares.add(new Par(5,24,"0",2044,1707));</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -878,15 +1960,12 @@
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,H3,G3,",",D3,",",E3,"));")</f>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H56" si="0">CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,A3,G3,",",D3,",",E3,"));")</f>
         <v>listaPares.add(new Par(5,30,"1",1781,1859));</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -905,15 +1984,12 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B4,",",C4,",",G4,H4,G4,",",D4,",",E4,"));")</f>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(5,36,"2",1847,1809));</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -932,15 +2008,12 @@
       <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B5,",",C5,",",G5,H5,G5,",",D5,",",E5,"));")</f>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(5,42,"3",1889,1771));</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -959,15 +2032,12 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B6,",",C6,",",G6,H6,G6,",",D6,",",E6,"));")</f>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(5,48,"4",1685,2004));</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -986,15 +2056,12 @@
       <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B7,",",C7,",",G7,H7,G7,",",D7,",",E7,"));")</f>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(11,24,"5",1907,1637));</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1013,15 +2080,12 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B8,",",C8,",",G8,H8,G8,",",D8,",",E8,"));")</f>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(11,30,"6",1720,1798));</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1040,15 +2104,12 @@
       <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B9,",",C9,",",G9,H9,G9,",",D9,",",E9,"));")</f>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(11,36,"7",1690,1777));</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1067,15 +2128,12 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B10,",",C10,",",G10,H10,G10,",",D10,",",E10,"));")</f>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(11,42,"8",1644,1832));</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1094,15 +2152,12 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B11,",",C11,",",G11,H11,G11,",",D11,",",E11,"));")</f>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(11,48,"9",1583,1925));</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1121,15 +2176,12 @@
       <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B12,",",C12,",",G12,H12,G12,",",D12,",",E12,"));")</f>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(17,24,"10",1793,1598));</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1148,15 +2200,12 @@
       <c r="G13" t="s">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B13,",",C13,",",G13,H13,G13,",",D13,",",E13,"));")</f>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(17,30,"11",1686,1651));</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1175,15 +2224,12 @@
       <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B14,",",C14,",",G14,H14,G14,",",D14,",",E14,"));")</f>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(17,36,"12",1595,1727));</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1202,15 +2248,12 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B15,",",C15,",",G15,H15,G15,",",D15,",",E15,"));")</f>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(17,42,"13",1534,1776));</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1229,15 +2272,12 @@
       <c r="G16" t="s">
         <v>5</v>
       </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B16,",",C16,",",G16,H16,G16,",",D16,",",E16,"));")</f>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(17,48,"14",1461,1863));</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1256,15 +2296,12 @@
       <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B17,",",C17,",",G17,H17,G17,",",D17,",",E17,"));")</f>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(23,24,"15",1685,1551));</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1283,15 +2320,12 @@
       <c r="G18" t="s">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B18,",",C18,",",G18,H18,G18,",",D18,",",E18,"));")</f>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(23,30,"16",1603,1619));</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1310,15 +2344,12 @@
       <c r="G19" t="s">
         <v>5</v>
       </c>
-      <c r="H19">
-        <v>17</v>
-      </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B19,",",C19,",",G19,H19,G19,",",D19,",",E19,"));")</f>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(23,36,"17",1506,1668));</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1337,15 +2368,12 @@
       <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="H20">
-        <v>18</v>
-      </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B20,",",C20,",",G20,H20,G20,",",D20,",",E20,"));")</f>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(23,42,"18",1451,1714));</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1364,15 +2392,12 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B21,",",C21,",",G21,H21,G21,",",D21,",",E21,"));")</f>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(23,48,"19",1376,1760));</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1391,15 +2416,12 @@
       <c r="G22" t="s">
         <v>5</v>
       </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B22,",",C22,",",G22,H22,G22,",",D22,",",E22,"));")</f>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(29,24,"20",1597,1490));</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1418,15 +2440,12 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="H23">
-        <v>21</v>
-      </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B23,",",C23,",",G23,H23,G23,",",D23,",",E23,"));")</f>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(29,30,"21",1525,1539));</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1445,15 +2464,12 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B24,",",C24,",",G24,H24,G24,",",D24,",",E24,"));")</f>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(29,36,"22",1402,1604));</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1472,15 +2488,12 @@
       <c r="G25" t="s">
         <v>5</v>
       </c>
-      <c r="H25">
-        <v>23</v>
-      </c>
-      <c r="I25" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B25,",",C25,",",G25,H25,G25,",",D25,",",E25,"));")</f>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(29,42,"23",1329,1638));</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1499,15 +2512,12 @@
       <c r="G26" t="s">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>24</v>
-      </c>
-      <c r="I26" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B26,",",C26,",",G26,H26,G26,",",D26,",",E26,"));")</f>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(29,48,"24",1285,1676));</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1526,15 +2536,12 @@
       <c r="G27" t="s">
         <v>5</v>
       </c>
-      <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="I27" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B27,",",C27,",",G27,H27,G27,",",D27,",",E27,"));")</f>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(35,24,"25",1531,1423));</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1553,15 +2560,12 @@
       <c r="G28" t="s">
         <v>5</v>
       </c>
-      <c r="H28">
-        <v>26</v>
-      </c>
-      <c r="I28" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B28,",",C28,",",G28,H28,G28,",",D28,",",E28,"));")</f>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(35,30,"26",1470,1467));</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1580,15 +2584,12 @@
       <c r="G29" t="s">
         <v>5</v>
       </c>
-      <c r="H29">
-        <v>27</v>
-      </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B29,",",C29,",",G29,H29,G29,",",D29,",",E29,"));")</f>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(35,36,"27",1373,1520));</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1607,15 +2608,12 @@
       <c r="G30" t="s">
         <v>5</v>
       </c>
-      <c r="H30">
-        <v>28</v>
-      </c>
-      <c r="I30" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B30,",",C30,",",G30,H30,G30,",",D30,",",E30,"));")</f>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(35,42,"28",1268,1570));</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1634,15 +2632,12 @@
       <c r="G31" t="s">
         <v>5</v>
       </c>
-      <c r="H31">
-        <v>29</v>
-      </c>
-      <c r="I31" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B31,",",C31,",",G31,H31,G31,",",D31,",",E31,"));")</f>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(35,48,"29",1191,1592));</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1661,15 +2656,12 @@
       <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="H32">
-        <v>30</v>
-      </c>
-      <c r="I32" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B32,",",C32,",",G32,H32,G32,",",D32,",",E32,"));")</f>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(41,24,"30",1470,1357));</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1688,15 +2680,12 @@
       <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="H33">
-        <v>31</v>
-      </c>
-      <c r="I33" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B33,",",C33,",",G33,H33,G33,",",D33,",",E33,"));")</f>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(41,30,"31",1385,1398));</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1715,15 +2704,12 @@
       <c r="G34" t="s">
         <v>5</v>
       </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-      <c r="I34" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B34,",",C34,",",G34,H34,G34,",",D34,",",E34,"));")</f>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(41,36,"32",1284,1449));</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1742,15 +2728,12 @@
       <c r="G35" t="s">
         <v>5</v>
       </c>
-      <c r="H35">
-        <v>33</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" ref="I35:I56" si="0">CONCATENATE("listaPares.add(new Par(",B35,",",C35,",",G35,H35,G35,",",D35,",",E35,"));")</f>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
         <v>listaPares.add(new Par(41,42,"33",1189,1477));</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1769,15 +2752,12 @@
       <c r="G36" t="s">
         <v>5</v>
       </c>
-      <c r="H36">
-        <v>34</v>
-      </c>
-      <c r="I36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(41,48,"34",1096,1492));</v>
       </c>
     </row>
-    <row r="37" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1796,15 +2776,12 @@
       <c r="G37" t="s">
         <v>5</v>
       </c>
-      <c r="H37">
-        <v>35</v>
-      </c>
-      <c r="I37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(47,24,"35",1421,1277));</v>
       </c>
     </row>
-    <row r="38" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1823,15 +2800,12 @@
       <c r="G38" t="s">
         <v>5</v>
       </c>
-      <c r="H38">
-        <v>36</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(47,30,"36",1328,1322));</v>
       </c>
     </row>
-    <row r="39" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1850,15 +2824,12 @@
       <c r="G39" t="s">
         <v>5</v>
       </c>
-      <c r="H39">
-        <v>37</v>
-      </c>
-      <c r="I39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(47,36,"37",1224,1362));</v>
       </c>
     </row>
-    <row r="40" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1877,15 +2848,12 @@
       <c r="G40" t="s">
         <v>5</v>
       </c>
-      <c r="H40">
-        <v>38</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(47,42,"38",1131,1394));</v>
       </c>
     </row>
-    <row r="41" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1904,15 +2872,12 @@
       <c r="G41" t="s">
         <v>5</v>
       </c>
-      <c r="H41">
-        <v>39</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(47,48,"39",1021,1403));</v>
       </c>
     </row>
-    <row r="42" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1931,15 +2896,12 @@
       <c r="G42" t="s">
         <v>5</v>
       </c>
-      <c r="H42">
-        <v>40</v>
-      </c>
-      <c r="I42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(53,24,"40",1377,1191));</v>
       </c>
     </row>
-    <row r="43" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1958,15 +2920,12 @@
       <c r="G43" t="s">
         <v>5</v>
       </c>
-      <c r="H43">
-        <v>41</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(53,30,"41",1286,1232));</v>
       </c>
     </row>
-    <row r="44" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1985,15 +2944,12 @@
       <c r="G44" t="s">
         <v>5</v>
       </c>
-      <c r="H44">
-        <v>42</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(53,36,"42",1168,1279));</v>
       </c>
     </row>
-    <row r="45" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2012,15 +2968,12 @@
       <c r="G45" t="s">
         <v>5</v>
       </c>
-      <c r="H45">
-        <v>43</v>
-      </c>
-      <c r="I45" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(53,42,"43",1064,1303));</v>
       </c>
     </row>
-    <row r="46" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2039,15 +2992,12 @@
       <c r="G46" t="s">
         <v>5</v>
       </c>
-      <c r="H46">
-        <v>44</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(53,48,"44",966,1318));</v>
       </c>
     </row>
-    <row r="47" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2066,15 +3016,12 @@
       <c r="G47" t="s">
         <v>5</v>
       </c>
-      <c r="H47">
-        <v>45</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(59,24,"45",1348,1092));</v>
       </c>
     </row>
-    <row r="48" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2093,15 +3040,12 @@
       <c r="G48" t="s">
         <v>5</v>
       </c>
-      <c r="H48">
-        <v>46</v>
-      </c>
-      <c r="I48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(59,30,"46",1238,1142));</v>
       </c>
     </row>
-    <row r="49" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2120,15 +3064,12 @@
       <c r="G49" t="s">
         <v>5</v>
       </c>
-      <c r="H49">
-        <v>47</v>
-      </c>
-      <c r="I49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(59,36,"47",1124,1197));</v>
       </c>
     </row>
-    <row r="50" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2147,15 +3088,12 @@
       <c r="G50" t="s">
         <v>5</v>
       </c>
-      <c r="H50">
-        <v>48</v>
-      </c>
-      <c r="I50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(59,42,"48",1022,1223));</v>
       </c>
     </row>
-    <row r="51" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2174,15 +3112,12 @@
       <c r="G51" t="s">
         <v>5</v>
       </c>
-      <c r="H51">
-        <v>49</v>
-      </c>
-      <c r="I51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(59,48,"49",911,1240));</v>
       </c>
     </row>
-    <row r="52" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2201,15 +3136,12 @@
       <c r="G52" t="s">
         <v>5</v>
       </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
-      <c r="I52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(65,24,"50",1331,981));</v>
       </c>
     </row>
-    <row r="53" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2228,15 +3160,12 @@
       <c r="G53" t="s">
         <v>5</v>
       </c>
-      <c r="H53">
-        <v>51</v>
-      </c>
-      <c r="I53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(65,30,"51",1214,1053));</v>
       </c>
     </row>
-    <row r="54" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2255,15 +3184,12 @@
       <c r="G54" t="s">
         <v>5</v>
       </c>
-      <c r="H54">
-        <v>52</v>
-      </c>
-      <c r="I54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(65,36,"52",1109,1097));</v>
       </c>
     </row>
-    <row r="55" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2282,15 +3208,12 @@
       <c r="G55" t="s">
         <v>5</v>
       </c>
-      <c r="H55">
-        <v>53</v>
-      </c>
-      <c r="I55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(65,42,"53",993,1127));</v>
       </c>
     </row>
-    <row r="56" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2309,26 +3232,11 @@
       <c r="G56" t="s">
         <v>5</v>
       </c>
-      <c r="H56">
-        <v>54</v>
-      </c>
-      <c r="I56" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>listaPares.add(new Par(65,48,"54",888,1154));</v>
       </c>
     </row>
-    <row r="57" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="B2:E56">
     <sortCondition ref="B2:B56"/>
@@ -2342,13 +3250,2007 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1685</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2004</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,",",G2,A2,G2,",",D2,",",E2,"));")</f>
+        <v>listaPares.add(new Par(5,24,"0",1685,2004));</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>1685</v>
+      </c>
+      <c r="N2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1889</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1771</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H56" si="0">CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,A3,G3,",",D3,",",E3,"));")</f>
+        <v>listaPares.add(new Par(5,30,"1",1889,1771));</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>1583</v>
+      </c>
+      <c r="N3">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1847</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1809</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(5,36,"2",1847,1809));</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>1461</v>
+      </c>
+      <c r="N4">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1781</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1859</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(5,42,"3",1781,1859));</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>1376</v>
+      </c>
+      <c r="N5">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2044</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1707</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(5,48,"4",2044,1707));</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>1285</v>
+      </c>
+      <c r="N6">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1583</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1925</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(11,24,"5",1583,1925));</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>1191</v>
+      </c>
+      <c r="N7">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1644</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1832</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(11,30,"6",1644,1832));</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>1096</v>
+      </c>
+      <c r="N8">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1690</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1777</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(11,36,"7",1690,1777));</v>
+      </c>
+      <c r="K9">
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>1021</v>
+      </c>
+      <c r="N9">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1720</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1798</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(11,42,"8",1720,1798));</v>
+      </c>
+      <c r="K10">
+        <v>53</v>
+      </c>
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>966</v>
+      </c>
+      <c r="N10">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1907</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1637</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(11,48,"9",1907,1637));</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>911</v>
+      </c>
+      <c r="N11">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1461</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1863</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(17,24,"10",1461,1863));</v>
+      </c>
+      <c r="K12">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>888</v>
+      </c>
+      <c r="N12">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1534</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1776</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(17,30,"11",1534,1776));</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>1889</v>
+      </c>
+      <c r="N13">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1595</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1727</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(17,36,"12",1595,1727));</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>1644</v>
+      </c>
+      <c r="N14">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1686</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1651</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(17,42,"13",1686,1651));</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>1534</v>
+      </c>
+      <c r="N15">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1793</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1598</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(17,48,"14",1793,1598));</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>1451</v>
+      </c>
+      <c r="N16">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1376</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1760</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(23,24,"15",1376,1760));</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>1329</v>
+      </c>
+      <c r="N17">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1451</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1714</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(23,30,"16",1451,1714));</v>
+      </c>
+      <c r="K18">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>1268</v>
+      </c>
+      <c r="N18">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1506</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1668</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(23,36,"17",1506,1668));</v>
+      </c>
+      <c r="K19">
+        <v>41</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>1189</v>
+      </c>
+      <c r="N19">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1603</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1619</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(23,42,"18",1603,1619));</v>
+      </c>
+      <c r="K20">
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>1131</v>
+      </c>
+      <c r="N20">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1685</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1551</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(23,48,"19",1685,1551));</v>
+      </c>
+      <c r="K21">
+        <v>53</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>1064</v>
+      </c>
+      <c r="N21">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1285</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1676</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(29,24,"20",1285,1676));</v>
+      </c>
+      <c r="K22">
+        <v>59</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>1022</v>
+      </c>
+      <c r="N22">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1329</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1638</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(29,30,"21",1329,1638));</v>
+      </c>
+      <c r="K23">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>993</v>
+      </c>
+      <c r="N23">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1402</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1604</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(29,36,"22",1402,1604));</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>1847</v>
+      </c>
+      <c r="N24">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1525</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1539</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(29,42,"23",1525,1539));</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>1690</v>
+      </c>
+      <c r="N25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1597</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1490</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(29,48,"24",1597,1490));</v>
+      </c>
+      <c r="K26">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>1595</v>
+      </c>
+      <c r="N26">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1191</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1592</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(35,24,"25",1191,1592));</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>1506</v>
+      </c>
+      <c r="N27">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1268</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1570</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(35,30,"26",1268,1570));</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>36</v>
+      </c>
+      <c r="M28">
+        <v>1402</v>
+      </c>
+      <c r="N28">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1373</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1520</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(35,36,"27",1373,1520));</v>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>1373</v>
+      </c>
+      <c r="N29">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1470</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1467</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(35,42,"28",1470,1467));</v>
+      </c>
+      <c r="K30">
+        <v>41</v>
+      </c>
+      <c r="L30">
+        <v>36</v>
+      </c>
+      <c r="M30">
+        <v>1284</v>
+      </c>
+      <c r="N30">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1531</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1423</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(35,48,"29",1531,1423));</v>
+      </c>
+      <c r="K31">
+        <v>47</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>1224</v>
+      </c>
+      <c r="N31">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1096</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1492</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(41,24,"30",1096,1492));</v>
+      </c>
+      <c r="K32">
+        <v>53</v>
+      </c>
+      <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>1168</v>
+      </c>
+      <c r="N32">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1189</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1477</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(41,30,"31",1189,1477));</v>
+      </c>
+      <c r="K33">
+        <v>59</v>
+      </c>
+      <c r="L33">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>1124</v>
+      </c>
+      <c r="N33">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1284</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1449</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(41,36,"32",1284,1449));</v>
+      </c>
+      <c r="K34">
+        <v>65</v>
+      </c>
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>1109</v>
+      </c>
+      <c r="N34">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1385</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1398</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(41,42,"33",1385,1398));</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>42</v>
+      </c>
+      <c r="M35">
+        <v>1781</v>
+      </c>
+      <c r="N35">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1470</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1357</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(41,48,"34",1470,1357));</v>
+      </c>
+      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>42</v>
+      </c>
+      <c r="M36">
+        <v>1720</v>
+      </c>
+      <c r="N36">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1021</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1403</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(47,24,"35",1021,1403));</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>1686</v>
+      </c>
+      <c r="N37">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1131</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1394</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(47,30,"36",1131,1394));</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>42</v>
+      </c>
+      <c r="M38">
+        <v>1603</v>
+      </c>
+      <c r="N38">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1224</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1362</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(47,36,"37",1224,1362));</v>
+      </c>
+      <c r="K39">
+        <v>29</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>1525</v>
+      </c>
+      <c r="N39">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1328</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1322</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(47,42,"38",1328,1322));</v>
+      </c>
+      <c r="K40">
+        <v>35</v>
+      </c>
+      <c r="L40">
+        <v>42</v>
+      </c>
+      <c r="M40">
+        <v>1470</v>
+      </c>
+      <c r="N40">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1421</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1277</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(47,48,"39",1421,1277));</v>
+      </c>
+      <c r="K41">
+        <v>41</v>
+      </c>
+      <c r="L41">
+        <v>42</v>
+      </c>
+      <c r="M41">
+        <v>1385</v>
+      </c>
+      <c r="N41">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3">
+        <v>966</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1318</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(53,24,"40",966,1318));</v>
+      </c>
+      <c r="K42">
+        <v>47</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>1328</v>
+      </c>
+      <c r="N42">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1064</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(53,30,"41",1064,1303));</v>
+      </c>
+      <c r="K43">
+        <v>53</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>1286</v>
+      </c>
+      <c r="N43">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1168</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1279</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(53,36,"42",1168,1279));</v>
+      </c>
+      <c r="K44">
+        <v>59</v>
+      </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>1238</v>
+      </c>
+      <c r="N44">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1286</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1232</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(53,42,"43",1286,1232));</v>
+      </c>
+      <c r="K45">
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <v>42</v>
+      </c>
+      <c r="M45">
+        <v>1214</v>
+      </c>
+      <c r="N45">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1377</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(53,48,"44",1377,1191));</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>48</v>
+      </c>
+      <c r="M46">
+        <v>2044</v>
+      </c>
+      <c r="N46">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3">
+        <v>911</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1240</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(59,24,"45",911,1240));</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
+      </c>
+      <c r="M47">
+        <v>1907</v>
+      </c>
+      <c r="N47">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1022</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1223</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(59,30,"46",1022,1223));</v>
+      </c>
+      <c r="K48">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>48</v>
+      </c>
+      <c r="M48">
+        <v>1793</v>
+      </c>
+      <c r="N48">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1124</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(59,36,"47",1124,1197));</v>
+      </c>
+      <c r="K49">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>1685</v>
+      </c>
+      <c r="N49">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1238</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(59,42,"48",1238,1142));</v>
+      </c>
+      <c r="K50">
+        <v>29</v>
+      </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>1597</v>
+      </c>
+      <c r="N50">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1348</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1092</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(59,48,"49",1348,1092));</v>
+      </c>
+      <c r="K51">
+        <v>35</v>
+      </c>
+      <c r="L51">
+        <v>48</v>
+      </c>
+      <c r="M51">
+        <v>1531</v>
+      </c>
+      <c r="N51">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" s="3">
+        <v>888</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(65,24,"50",888,1154));</v>
+      </c>
+      <c r="K52">
+        <v>41</v>
+      </c>
+      <c r="L52">
+        <v>48</v>
+      </c>
+      <c r="M52">
+        <v>1470</v>
+      </c>
+      <c r="N52">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>65</v>
+      </c>
+      <c r="C53" s="1">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3">
+        <v>993</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1127</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(65,30,"51",993,1127));</v>
+      </c>
+      <c r="K53">
+        <v>47</v>
+      </c>
+      <c r="L53">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <v>1421</v>
+      </c>
+      <c r="N53">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1109</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1097</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(65,36,"52",1109,1097));</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+      <c r="L54">
+        <v>48</v>
+      </c>
+      <c r="M54">
+        <v>1377</v>
+      </c>
+      <c r="N54">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1214</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1053</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(65,42,"53",1214,1053));</v>
+      </c>
+      <c r="K55">
+        <v>59</v>
+      </c>
+      <c r="L55">
+        <v>48</v>
+      </c>
+      <c r="M55">
+        <v>1348</v>
+      </c>
+      <c r="N55">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>48</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1331</v>
+      </c>
+      <c r="E56" s="3">
+        <v>981</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>listaPares.add(new Par(65,48,"54",1331,981));</v>
+      </c>
+      <c r="K56">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>48</v>
+      </c>
+      <c r="M56">
+        <v>1331</v>
+      </c>
+      <c r="N56">
+        <v>981</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="K2:N56">
+    <sortCondition ref="L2:L56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PlotClock/Cinematica Inversa.xlsx
+++ b/PlotClock/Cinematica Inversa.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17460" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="1" r:id="rId1"/>
     <sheet name="Invertido" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -224,11 +225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81117568"/>
-        <c:axId val="81119104"/>
+        <c:axId val="101894784"/>
+        <c:axId val="101900672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81117568"/>
+        <c:axId val="101894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,7 +238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81119104"/>
+        <c:crossAx val="101900672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -245,7 +246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81119104"/>
+        <c:axId val="101900672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81117568"/>
+        <c:crossAx val="101894784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -403,11 +404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65091456"/>
-        <c:axId val="65092992"/>
+        <c:axId val="101978496"/>
+        <c:axId val="101980032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65091456"/>
+        <c:axId val="101978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65092992"/>
+        <c:crossAx val="101980032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65092992"/>
+        <c:axId val="101980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65091456"/>
+        <c:crossAx val="101978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -480,42 +481,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Invertido!$M$2:$M$12</c:f>
+              <c:f>Invertido!$M$24:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1685</c:v>
+                  <c:v>1847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1583</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1461</c:v>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1376</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1285</c:v>
+                  <c:v>1402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1191</c:v>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1096</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1021</c:v>
+                  <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>966</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>911</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>888</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,42 +531,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Invertido!$N$2:$N$12</c:f>
+              <c:f>Invertido!$N$24:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2004</c:v>
+                  <c:v>1809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1925</c:v>
+                  <c:v>1777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1863</c:v>
+                  <c:v>1727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1760</c:v>
+                  <c:v>1668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1676</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1592</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1492</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1403</c:v>
+                  <c:v>1362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1318</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1240</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1154</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,11 +583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80318464"/>
-        <c:axId val="80321152"/>
+        <c:axId val="105243776"/>
+        <c:axId val="105245312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80318464"/>
+        <c:axId val="105243776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80321152"/>
+        <c:crossAx val="105245312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80321152"/>
+        <c:axId val="105245312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80318464"/>
+        <c:crossAx val="105243776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -659,364 +660,6 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Invertido!$M$13:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1534</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1451</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1329</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1189</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1131</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Invertido!$N$13:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1771</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1832</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1776</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1714</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1477</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1394</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1127</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="71391488"/>
-        <c:axId val="83443712"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="71391488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83443712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83443712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71391488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Invertido!$M$24:$M$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1847</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1690</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1595</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1506</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1168</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1109</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Invertido!$N$24:$N$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1809</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1449</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1279</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="50147712"/>
-        <c:axId val="50149248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50147712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50149248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50149248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50147712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
               <c:f>Invertido!$M$35:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1119,11 +762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66443136"/>
-        <c:axId val="66444672"/>
+        <c:axId val="105417344"/>
+        <c:axId val="105492864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66443136"/>
+        <c:axId val="105417344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66444672"/>
+        <c:crossAx val="105492864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66444672"/>
+        <c:axId val="105492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66443136"/>
+        <c:crossAx val="105417344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,7 +811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-CL"/>
@@ -1328,11 +971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69477888"/>
-        <c:axId val="69501312"/>
+        <c:axId val="105551744"/>
+        <c:axId val="105553280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69477888"/>
+        <c:axId val="105551744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69501312"/>
+        <c:crossAx val="105553280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69501312"/>
+        <c:axId val="105553280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69477888"/>
+        <c:crossAx val="105551744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,66 +1090,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -1528,7 +1111,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1558,7 +1141,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1588,7 +1171,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3252,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,17 +2895,17 @@
         <v>30</v>
       </c>
       <c r="D3" s="3">
-        <v>1889</v>
+        <v>1734</v>
       </c>
       <c r="E3" s="3">
-        <v>1771</v>
+        <v>1919</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H56" si="0">CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,A3,G3,",",D3,",",E3,"));")</f>
-        <v>listaPares.add(new Par(5,30,"1",1889,1771));</v>
+        <v>listaPares.add(new Par(5,30,"1",1734,1919));</v>
       </c>
       <c r="K3">
         <v>11</v>
@@ -3348,17 +2931,17 @@
         <v>36</v>
       </c>
       <c r="D4" s="1">
-        <v>1847</v>
+        <v>1750</v>
       </c>
       <c r="E4" s="1">
-        <v>1809</v>
+        <v>1833</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(5,36,"2",1847,1809));</v>
+        <v>listaPares.add(new Par(5,36,"2",1750,1833));</v>
       </c>
       <c r="K4">
         <v>17</v>
@@ -3384,17 +2967,17 @@
         <v>42</v>
       </c>
       <c r="D5" s="3">
-        <v>1781</v>
+        <v>1896</v>
       </c>
       <c r="E5" s="3">
-        <v>1859</v>
+        <v>1788</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(5,42,"3",1781,1859));</v>
+        <v>listaPares.add(new Par(5,42,"3",1896,1788));</v>
       </c>
       <c r="K5">
         <v>23</v>
@@ -3564,17 +3147,17 @@
         <v>42</v>
       </c>
       <c r="D10" s="3">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="E10" s="3">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,42,"8",1720,1798));</v>
+        <v>listaPares.add(new Par(11,42,"8",1699,1795));</v>
       </c>
       <c r="K10">
         <v>53</v>

--- a/PlotClock/Cinematica Inversa.xlsx
+++ b/PlotClock/Cinematica Inversa.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="8">
   <si>
     <t>Plot</t>
   </si>
@@ -35,6 +34,12 @@
   </si>
   <si>
     <t>"</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
   </si>
 </sst>
 </file>
@@ -225,11 +230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101894784"/>
-        <c:axId val="101900672"/>
+        <c:axId val="77434240"/>
+        <c:axId val="77448320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101894784"/>
+        <c:axId val="77434240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -238,7 +243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101900672"/>
+        <c:crossAx val="77448320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -246,7 +251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101900672"/>
+        <c:axId val="77448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,7 +262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101894784"/>
+        <c:crossAx val="77434240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -404,11 +409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101978496"/>
-        <c:axId val="101980032"/>
+        <c:axId val="77468800"/>
+        <c:axId val="77470336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101978496"/>
+        <c:axId val="77468800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101980032"/>
+        <c:crossAx val="77470336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -425,7 +430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101980032"/>
+        <c:axId val="77470336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101978496"/>
+        <c:crossAx val="77468800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -583,11 +588,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105243776"/>
-        <c:axId val="105245312"/>
+        <c:axId val="78277632"/>
+        <c:axId val="78279424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105243776"/>
+        <c:axId val="78277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105245312"/>
+        <c:crossAx val="78279424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105245312"/>
+        <c:axId val="78279424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105243776"/>
+        <c:crossAx val="78277632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,11 +767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105417344"/>
-        <c:axId val="105492864"/>
+        <c:axId val="78299904"/>
+        <c:axId val="78301440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105417344"/>
+        <c:axId val="78299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105492864"/>
+        <c:crossAx val="78301440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105492864"/>
+        <c:axId val="78301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105417344"/>
+        <c:crossAx val="78299904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,11 +976,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105551744"/>
-        <c:axId val="105553280"/>
+        <c:axId val="78872576"/>
+        <c:axId val="78874112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105551744"/>
+        <c:axId val="78872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105553280"/>
+        <c:crossAx val="78874112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105553280"/>
+        <c:axId val="78874112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105551744"/>
+        <c:crossAx val="78872576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,8 +1094,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
@@ -1149,8 +1154,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
@@ -2833,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,17 +2864,17 @@
         <v>24</v>
       </c>
       <c r="D2" s="3">
-        <v>1685</v>
+        <v>1993</v>
       </c>
       <c r="E2" s="3">
-        <v>2004</v>
+        <v>1707</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,",",G2,A2,G2,",",D2,",",E2,"));")</f>
-        <v>listaPares.add(new Par(5,24,"0",1685,2004));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B2,",",C2,",",G2,A2,G2,",",E2,",",D2,"));")</f>
+        <v>listaPares.add(new Par(5,24,"0",1707,1993));</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -2895,16 +2900,16 @@
         <v>30</v>
       </c>
       <c r="D3" s="3">
+        <v>1919</v>
+      </c>
+      <c r="E3" s="3">
         <v>1734</v>
       </c>
-      <c r="E3" s="3">
-        <v>1919</v>
-      </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H56" si="0">CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,A3,G3,",",D3,",",E3,"));")</f>
+        <f>CONCATENATE("listaPares.add(new Par(",B3,",",C3,",",G3,A3,G3,",",E3,",",D3,"));")</f>
         <v>listaPares.add(new Par(5,30,"1",1734,1919));</v>
       </c>
       <c r="K3">
@@ -2931,16 +2936,16 @@
         <v>36</v>
       </c>
       <c r="D4" s="1">
+        <v>1833</v>
+      </c>
+      <c r="E4" s="1">
         <v>1750</v>
       </c>
-      <c r="E4" s="1">
-        <v>1833</v>
-      </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("listaPares.add(new Par(",B4,",",C4,",",G4,A4,G4,",",E4,",",D4,"));")</f>
         <v>listaPares.add(new Par(5,36,"2",1750,1833));</v>
       </c>
       <c r="K4">
@@ -2967,16 +2972,16 @@
         <v>42</v>
       </c>
       <c r="D5" s="3">
+        <v>1788</v>
+      </c>
+      <c r="E5" s="3">
         <v>1896</v>
       </c>
-      <c r="E5" s="3">
-        <v>1788</v>
-      </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("listaPares.add(new Par(",B5,",",C5,",",G5,A5,G5,",",E5,",",D5,"));")</f>
         <v>listaPares.add(new Par(5,42,"3",1896,1788));</v>
       </c>
       <c r="K5">
@@ -3003,16 +3008,16 @@
         <v>48</v>
       </c>
       <c r="D6" s="3">
+        <v>1707</v>
+      </c>
+      <c r="E6" s="3">
         <v>2044</v>
       </c>
-      <c r="E6" s="3">
-        <v>1707</v>
-      </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("listaPares.add(new Par(",B6,",",C6,",",G6,A6,G6,",",E6,",",D6,"));")</f>
         <v>listaPares.add(new Par(5,48,"4",2044,1707));</v>
       </c>
       <c r="K6">
@@ -3033,23 +3038,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <f>B2+7</f>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>24</v>
       </c>
       <c r="D7" s="3">
+        <v>1925</v>
+      </c>
+      <c r="E7" s="3">
         <v>1583</v>
       </c>
-      <c r="E7" s="3">
-        <v>1925</v>
-      </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,24,"5",1583,1925));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B7,",",C7,",",G7,A7,G7,",",E7,",",D7,"));")</f>
+        <v>listaPares.add(new Par(12,24,"5",1583,1925));</v>
       </c>
       <c r="K7">
         <v>35</v>
@@ -3069,23 +3075,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <f t="shared" ref="B8:B56" si="0">B3+7</f>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
       </c>
       <c r="D8" s="3">
+        <v>1832</v>
+      </c>
+      <c r="E8" s="3">
         <v>1644</v>
       </c>
-      <c r="E8" s="3">
-        <v>1832</v>
-      </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,30,"6",1644,1832));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B8,",",C8,",",G8,A8,G8,",",E8,",",D8,"));")</f>
+        <v>listaPares.add(new Par(12,30,"6",1644,1832));</v>
       </c>
       <c r="K8">
         <v>41</v>
@@ -3105,23 +3112,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>36</v>
       </c>
       <c r="D9" s="2">
+        <v>1777</v>
+      </c>
+      <c r="E9" s="2">
         <v>1690</v>
       </c>
-      <c r="E9" s="2">
-        <v>1777</v>
-      </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,36,"7",1690,1777));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B9,",",C9,",",G9,A9,G9,",",E9,",",D9,"));")</f>
+        <v>listaPares.add(new Par(12,36,"7",1690,1777));</v>
       </c>
       <c r="K9">
         <v>47</v>
@@ -3141,23 +3149,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>42</v>
       </c>
       <c r="D10" s="3">
-        <v>1699</v>
+        <v>1749</v>
       </c>
       <c r="E10" s="3">
-        <v>1795</v>
+        <v>1737</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,42,"8",1699,1795));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B10,",",C10,",",G10,A10,G10,",",E10,",",D10,"));")</f>
+        <v>listaPares.add(new Par(12,42,"8",1737,1749));</v>
       </c>
       <c r="K10">
         <v>53</v>
@@ -3177,23 +3186,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>48</v>
       </c>
       <c r="D11" s="3">
+        <v>1637</v>
+      </c>
+      <c r="E11" s="3">
         <v>1907</v>
       </c>
-      <c r="E11" s="3">
-        <v>1637</v>
-      </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(11,48,"9",1907,1637));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B11,",",C11,",",G11,A11,G11,",",E11,",",D11,"));")</f>
+        <v>listaPares.add(new Par(12,48,"9",1907,1637));</v>
       </c>
       <c r="K11">
         <v>59</v>
@@ -3213,23 +3223,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>24</v>
       </c>
       <c r="D12" s="3">
-        <v>1461</v>
+        <v>1849</v>
       </c>
       <c r="E12" s="3">
-        <v>1863</v>
+        <v>1508</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(17,24,"10",1461,1863));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B12,",",C12,",",G12,A12,G12,",",E12,",",D12,"));")</f>
+        <v>listaPares.add(new Par(19,24,"10",1508,1849));</v>
       </c>
       <c r="K12">
         <v>65</v>
@@ -3249,23 +3260,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
       </c>
       <c r="D13" s="3">
+        <v>1776</v>
+      </c>
+      <c r="E13" s="3">
         <v>1534</v>
       </c>
-      <c r="E13" s="3">
-        <v>1776</v>
-      </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(17,30,"11",1534,1776));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B13,",",C13,",",G13,A13,G13,",",E13,",",D13,"));")</f>
+        <v>listaPares.add(new Par(19,30,"11",1534,1776));</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -3285,23 +3297,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>36</v>
       </c>
       <c r="D14" s="1">
+        <v>1727</v>
+      </c>
+      <c r="E14" s="1">
         <v>1595</v>
       </c>
-      <c r="E14" s="1">
-        <v>1727</v>
-      </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(17,36,"12",1595,1727));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B14,",",C14,",",G14,A14,G14,",",E14,",",D14,"));")</f>
+        <v>listaPares.add(new Par(19,36,"12",1595,1727));</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -3321,23 +3334,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>42</v>
       </c>
       <c r="D15" s="3">
+        <v>1651</v>
+      </c>
+      <c r="E15" s="3">
         <v>1686</v>
       </c>
-      <c r="E15" s="3">
-        <v>1651</v>
-      </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(17,42,"13",1686,1651));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B15,",",C15,",",G15,A15,G15,",",E15,",",D15,"));")</f>
+        <v>listaPares.add(new Par(19,42,"13",1686,1651));</v>
       </c>
       <c r="K15">
         <v>17</v>
@@ -3357,23 +3371,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>48</v>
       </c>
       <c r="D16" s="3">
+        <v>1598</v>
+      </c>
+      <c r="E16" s="3">
         <v>1793</v>
       </c>
-      <c r="E16" s="3">
-        <v>1598</v>
-      </c>
       <c r="G16" t="s">
         <v>5</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(17,48,"14",1793,1598));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B16,",",C16,",",G16,A16,G16,",",E16,",",D16,"));")</f>
+        <v>listaPares.add(new Par(19,48,"14",1793,1598));</v>
       </c>
       <c r="K16">
         <v>23</v>
@@ -3393,23 +3408,24 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>24</v>
       </c>
       <c r="D17" s="3">
+        <v>1760</v>
+      </c>
+      <c r="E17" s="3">
         <v>1376</v>
       </c>
-      <c r="E17" s="3">
-        <v>1760</v>
-      </c>
       <c r="G17" t="s">
         <v>5</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(23,24,"15",1376,1760));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B17,",",C17,",",G17,A17,G17,",",E17,",",D17,"));")</f>
+        <v>listaPares.add(new Par(26,24,"15",1376,1760));</v>
       </c>
       <c r="K17">
         <v>29</v>
@@ -3429,23 +3445,24 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>30</v>
       </c>
       <c r="D18" s="3">
+        <v>1714</v>
+      </c>
+      <c r="E18" s="3">
         <v>1451</v>
       </c>
-      <c r="E18" s="3">
-        <v>1714</v>
-      </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(23,30,"16",1451,1714));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B18,",",C18,",",G18,A18,G18,",",E18,",",D18,"));")</f>
+        <v>listaPares.add(new Par(26,30,"16",1451,1714));</v>
       </c>
       <c r="K18">
         <v>35</v>
@@ -3465,23 +3482,24 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>36</v>
       </c>
       <c r="D19" s="1">
+        <v>1668</v>
+      </c>
+      <c r="E19" s="1">
         <v>1506</v>
       </c>
-      <c r="E19" s="1">
-        <v>1668</v>
-      </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(23,36,"17",1506,1668));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B19,",",C19,",",G19,A19,G19,",",E19,",",D19,"));")</f>
+        <v>listaPares.add(new Par(26,36,"17",1506,1668));</v>
       </c>
       <c r="K19">
         <v>41</v>
@@ -3501,23 +3519,24 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>42</v>
       </c>
       <c r="D20" s="3">
+        <v>1619</v>
+      </c>
+      <c r="E20" s="3">
         <v>1603</v>
       </c>
-      <c r="E20" s="3">
-        <v>1619</v>
-      </c>
       <c r="G20" t="s">
         <v>5</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(23,42,"18",1603,1619));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B20,",",C20,",",G20,A20,G20,",",E20,",",D20,"));")</f>
+        <v>listaPares.add(new Par(26,42,"18",1603,1619));</v>
       </c>
       <c r="K20">
         <v>47</v>
@@ -3537,23 +3556,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>48</v>
       </c>
       <c r="D21" s="3">
+        <v>1551</v>
+      </c>
+      <c r="E21" s="3">
         <v>1685</v>
       </c>
-      <c r="E21" s="3">
-        <v>1551</v>
-      </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(23,48,"19",1685,1551));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B21,",",C21,",",G21,A21,G21,",",E21,",",D21,"));")</f>
+        <v>listaPares.add(new Par(26,48,"19",1685,1551));</v>
       </c>
       <c r="K21">
         <v>53</v>
@@ -3573,23 +3593,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>24</v>
       </c>
       <c r="D22" s="3">
+        <v>1676</v>
+      </c>
+      <c r="E22" s="3">
         <v>1285</v>
       </c>
-      <c r="E22" s="3">
-        <v>1676</v>
-      </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(29,24,"20",1285,1676));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B22,",",C22,",",G22,A22,G22,",",E22,",",D22,"));")</f>
+        <v>listaPares.add(new Par(33,24,"20",1285,1676));</v>
       </c>
       <c r="K22">
         <v>59</v>
@@ -3609,23 +3630,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>30</v>
       </c>
       <c r="D23" s="3">
+        <v>1638</v>
+      </c>
+      <c r="E23" s="3">
         <v>1329</v>
       </c>
-      <c r="E23" s="3">
-        <v>1638</v>
-      </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(29,30,"21",1329,1638));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B23,",",C23,",",G23,A23,G23,",",E23,",",D23,"));")</f>
+        <v>listaPares.add(new Par(33,30,"21",1329,1638));</v>
       </c>
       <c r="K23">
         <v>65</v>
@@ -3645,23 +3667,24 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>36</v>
       </c>
       <c r="D24" s="1">
+        <v>1604</v>
+      </c>
+      <c r="E24" s="1">
         <v>1402</v>
       </c>
-      <c r="E24" s="1">
-        <v>1604</v>
-      </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(29,36,"22",1402,1604));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B24,",",C24,",",G24,A24,G24,",",E24,",",D24,"));")</f>
+        <v>listaPares.add(new Par(33,36,"22",1402,1604));</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -3681,23 +3704,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>42</v>
       </c>
       <c r="D25" s="3">
+        <v>1539</v>
+      </c>
+      <c r="E25" s="3">
         <v>1525</v>
       </c>
-      <c r="E25" s="3">
-        <v>1539</v>
-      </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(29,42,"23",1525,1539));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B25,",",C25,",",G25,A25,G25,",",E25,",",D25,"));")</f>
+        <v>listaPares.add(new Par(33,42,"23",1525,1539));</v>
       </c>
       <c r="K25">
         <v>11</v>
@@ -3717,23 +3741,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>48</v>
       </c>
       <c r="D26" s="3">
+        <v>1490</v>
+      </c>
+      <c r="E26" s="3">
         <v>1597</v>
       </c>
-      <c r="E26" s="3">
-        <v>1490</v>
-      </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(29,48,"24",1597,1490));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B26,",",C26,",",G26,A26,G26,",",E26,",",D26,"));")</f>
+        <v>listaPares.add(new Par(33,48,"24",1597,1490));</v>
       </c>
       <c r="K26">
         <v>17</v>
@@ -3753,23 +3778,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="3">
+        <v>1592</v>
+      </c>
+      <c r="E27" s="3">
         <v>1191</v>
       </c>
-      <c r="E27" s="3">
-        <v>1592</v>
-      </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(35,24,"25",1191,1592));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B27,",",C27,",",G27,A27,G27,",",E27,",",D27,"));")</f>
+        <v>listaPares.add(new Par(40,24,"25",1191,1592));</v>
       </c>
       <c r="K27">
         <v>23</v>
@@ -3789,23 +3815,24 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <v>30</v>
       </c>
       <c r="D28" s="3">
+        <v>1570</v>
+      </c>
+      <c r="E28" s="3">
         <v>1268</v>
       </c>
-      <c r="E28" s="3">
-        <v>1570</v>
-      </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(35,30,"26",1268,1570));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B28,",",C28,",",G28,A28,G28,",",E28,",",D28,"));")</f>
+        <v>listaPares.add(new Par(40,30,"26",1268,1570));</v>
       </c>
       <c r="K28">
         <v>29</v>
@@ -3825,23 +3852,24 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>36</v>
       </c>
       <c r="D29" s="1">
+        <v>1520</v>
+      </c>
+      <c r="E29" s="1">
         <v>1373</v>
       </c>
-      <c r="E29" s="1">
-        <v>1520</v>
-      </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(35,36,"27",1373,1520));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B29,",",C29,",",G29,A29,G29,",",E29,",",D29,"));")</f>
+        <v>listaPares.add(new Par(40,36,"27",1373,1520));</v>
       </c>
       <c r="K29">
         <v>35</v>
@@ -3861,23 +3889,24 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <v>42</v>
       </c>
       <c r="D30" s="3">
+        <v>1467</v>
+      </c>
+      <c r="E30" s="3">
         <v>1470</v>
       </c>
-      <c r="E30" s="3">
-        <v>1467</v>
-      </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(35,42,"28",1470,1467));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B30,",",C30,",",G30,A30,G30,",",E30,",",D30,"));")</f>
+        <v>listaPares.add(new Par(40,42,"28",1470,1467));</v>
       </c>
       <c r="K30">
         <v>41</v>
@@ -3897,23 +3926,24 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>48</v>
       </c>
       <c r="D31" s="3">
+        <v>1423</v>
+      </c>
+      <c r="E31" s="3">
         <v>1531</v>
       </c>
-      <c r="E31" s="3">
-        <v>1423</v>
-      </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(35,48,"29",1531,1423));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B31,",",C31,",",G31,A31,G31,",",E31,",",D31,"));")</f>
+        <v>listaPares.add(new Par(40,48,"29",1531,1423));</v>
       </c>
       <c r="K31">
         <v>47</v>
@@ -3933,23 +3963,24 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>24</v>
       </c>
       <c r="D32" s="3">
+        <v>1492</v>
+      </c>
+      <c r="E32" s="3">
         <v>1096</v>
       </c>
-      <c r="E32" s="3">
-        <v>1492</v>
-      </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(41,24,"30",1096,1492));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B32,",",C32,",",G32,A32,G32,",",E32,",",D32,"));")</f>
+        <v>listaPares.add(new Par(47,24,"30",1096,1492));</v>
       </c>
       <c r="K32">
         <v>53</v>
@@ -3969,23 +4000,24 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C33" s="1">
         <v>30</v>
       </c>
       <c r="D33" s="3">
+        <v>1477</v>
+      </c>
+      <c r="E33" s="3">
         <v>1189</v>
       </c>
-      <c r="E33" s="3">
-        <v>1477</v>
-      </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(41,30,"31",1189,1477));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B33,",",C33,",",G33,A33,G33,",",E33,",",D33,"));")</f>
+        <v>listaPares.add(new Par(47,30,"31",1189,1477));</v>
       </c>
       <c r="K33">
         <v>59</v>
@@ -4005,23 +4037,24 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <v>36</v>
       </c>
       <c r="D34" s="1">
+        <v>1449</v>
+      </c>
+      <c r="E34" s="1">
         <v>1284</v>
       </c>
-      <c r="E34" s="1">
-        <v>1449</v>
-      </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(41,36,"32",1284,1449));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B34,",",C34,",",G34,A34,G34,",",E34,",",D34,"));")</f>
+        <v>listaPares.add(new Par(47,36,"32",1284,1449));</v>
       </c>
       <c r="K34">
         <v>65</v>
@@ -4041,23 +4074,24 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>42</v>
       </c>
       <c r="D35" s="3">
+        <v>1398</v>
+      </c>
+      <c r="E35" s="3">
         <v>1385</v>
       </c>
-      <c r="E35" s="3">
-        <v>1398</v>
-      </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(41,42,"33",1385,1398));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B35,",",C35,",",G35,A35,G35,",",E35,",",D35,"));")</f>
+        <v>listaPares.add(new Par(47,42,"33",1385,1398));</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -4077,23 +4111,24 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>48</v>
       </c>
       <c r="D36" s="3">
+        <v>1357</v>
+      </c>
+      <c r="E36" s="3">
         <v>1470</v>
       </c>
-      <c r="E36" s="3">
-        <v>1357</v>
-      </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(41,48,"34",1470,1357));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B36,",",C36,",",G36,A36,G36,",",E36,",",D36,"));")</f>
+        <v>listaPares.add(new Par(47,48,"34",1470,1357));</v>
       </c>
       <c r="K36">
         <v>11</v>
@@ -4113,23 +4148,24 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>24</v>
       </c>
       <c r="D37" s="3">
+        <v>1403</v>
+      </c>
+      <c r="E37" s="3">
         <v>1021</v>
       </c>
-      <c r="E37" s="3">
-        <v>1403</v>
-      </c>
       <c r="G37" t="s">
         <v>5</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(47,24,"35",1021,1403));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B37,",",C37,",",G37,A37,G37,",",E37,",",D37,"));")</f>
+        <v>listaPares.add(new Par(54,24,"35",1021,1403));</v>
       </c>
       <c r="K37">
         <v>17</v>
@@ -4149,23 +4185,24 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C38" s="1">
         <v>30</v>
       </c>
       <c r="D38" s="3">
+        <v>1394</v>
+      </c>
+      <c r="E38" s="3">
         <v>1131</v>
       </c>
-      <c r="E38" s="3">
-        <v>1394</v>
-      </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(47,30,"36",1131,1394));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B38,",",C38,",",G38,A38,G38,",",E38,",",D38,"));")</f>
+        <v>listaPares.add(new Par(54,30,"36",1131,1394));</v>
       </c>
       <c r="K38">
         <v>23</v>
@@ -4185,23 +4222,24 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C39" s="1">
         <v>36</v>
       </c>
       <c r="D39" s="1">
+        <v>1362</v>
+      </c>
+      <c r="E39" s="1">
         <v>1224</v>
       </c>
-      <c r="E39" s="1">
-        <v>1362</v>
-      </c>
       <c r="G39" t="s">
         <v>5</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(47,36,"37",1224,1362));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B39,",",C39,",",G39,A39,G39,",",E39,",",D39,"));")</f>
+        <v>listaPares.add(new Par(54,36,"37",1224,1362));</v>
       </c>
       <c r="K39">
         <v>29</v>
@@ -4221,23 +4259,24 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>47</v>
+        <f>B35+7</f>
+        <v>54</v>
       </c>
       <c r="C40" s="1">
         <v>42</v>
       </c>
       <c r="D40" s="3">
+        <v>1322</v>
+      </c>
+      <c r="E40" s="3">
         <v>1328</v>
       </c>
-      <c r="E40" s="3">
-        <v>1322</v>
-      </c>
       <c r="G40" t="s">
         <v>5</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(47,42,"38",1328,1322));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B40,",",C40,",",G40,A40,G40,",",E40,",",D40,"));")</f>
+        <v>listaPares.add(new Par(54,42,"38",1328,1322));</v>
       </c>
       <c r="K40">
         <v>35</v>
@@ -4257,23 +4296,24 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>48</v>
       </c>
       <c r="D41" s="3">
+        <v>1277</v>
+      </c>
+      <c r="E41" s="3">
         <v>1421</v>
       </c>
-      <c r="E41" s="3">
-        <v>1277</v>
-      </c>
       <c r="G41" t="s">
         <v>5</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(47,48,"39",1421,1277));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B41,",",C41,",",G41,A41,G41,",",E41,",",D41,"));")</f>
+        <v>listaPares.add(new Par(54,48,"39",1421,1277));</v>
       </c>
       <c r="K41">
         <v>41</v>
@@ -4293,23 +4333,24 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>24</v>
       </c>
       <c r="D42" s="3">
+        <v>1318</v>
+      </c>
+      <c r="E42" s="3">
         <v>966</v>
       </c>
-      <c r="E42" s="3">
-        <v>1318</v>
-      </c>
       <c r="G42" t="s">
         <v>5</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(53,24,"40",966,1318));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B42,",",C42,",",G42,A42,G42,",",E42,",",D42,"));")</f>
+        <v>listaPares.add(new Par(61,24,"40",966,1318));</v>
       </c>
       <c r="K42">
         <v>47</v>
@@ -4329,23 +4370,24 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C43" s="1">
         <v>30</v>
       </c>
       <c r="D43" s="3">
+        <v>1303</v>
+      </c>
+      <c r="E43" s="3">
         <v>1064</v>
       </c>
-      <c r="E43" s="3">
-        <v>1303</v>
-      </c>
       <c r="G43" t="s">
         <v>5</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(53,30,"41",1064,1303));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B43,",",C43,",",G43,A43,G43,",",E43,",",D43,"));")</f>
+        <v>listaPares.add(new Par(61,30,"41",1064,1303));</v>
       </c>
       <c r="K43">
         <v>53</v>
@@ -4365,23 +4407,24 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C44" s="1">
         <v>36</v>
       </c>
       <c r="D44" s="1">
+        <v>1279</v>
+      </c>
+      <c r="E44" s="1">
         <v>1168</v>
       </c>
-      <c r="E44" s="1">
-        <v>1279</v>
-      </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(53,36,"42",1168,1279));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B44,",",C44,",",G44,A44,G44,",",E44,",",D44,"));")</f>
+        <v>listaPares.add(new Par(61,36,"42",1168,1279));</v>
       </c>
       <c r="K44">
         <v>59</v>
@@ -4401,23 +4444,24 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C45" s="1">
         <v>42</v>
       </c>
       <c r="D45" s="3">
+        <v>1232</v>
+      </c>
+      <c r="E45" s="3">
         <v>1286</v>
       </c>
-      <c r="E45" s="3">
-        <v>1232</v>
-      </c>
       <c r="G45" t="s">
         <v>5</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(53,42,"43",1286,1232));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B45,",",C45,",",G45,A45,G45,",",E45,",",D45,"));")</f>
+        <v>listaPares.add(new Par(61,42,"43",1286,1232));</v>
       </c>
       <c r="K45">
         <v>65</v>
@@ -4437,23 +4481,24 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>48</v>
       </c>
       <c r="D46" s="3">
+        <v>1191</v>
+      </c>
+      <c r="E46" s="3">
         <v>1377</v>
       </c>
-      <c r="E46" s="3">
-        <v>1191</v>
-      </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(53,48,"44",1377,1191));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B46,",",C46,",",G46,A46,G46,",",E46,",",D46,"));")</f>
+        <v>listaPares.add(new Par(61,48,"44",1377,1191));</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4473,23 +4518,24 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>24</v>
       </c>
       <c r="D47" s="3">
+        <v>1240</v>
+      </c>
+      <c r="E47" s="3">
         <v>911</v>
       </c>
-      <c r="E47" s="3">
-        <v>1240</v>
-      </c>
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(59,24,"45",911,1240));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B47,",",C47,",",G47,A47,G47,",",E47,",",D47,"));")</f>
+        <v>listaPares.add(new Par(68,24,"45",911,1240));</v>
       </c>
       <c r="K47">
         <v>11</v>
@@ -4509,23 +4555,24 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C48" s="1">
         <v>30</v>
       </c>
       <c r="D48" s="3">
+        <v>1223</v>
+      </c>
+      <c r="E48" s="3">
         <v>1022</v>
       </c>
-      <c r="E48" s="3">
-        <v>1223</v>
-      </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(59,30,"46",1022,1223));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B48,",",C48,",",G48,A48,G48,",",E48,",",D48,"));")</f>
+        <v>listaPares.add(new Par(68,30,"46",1022,1223));</v>
       </c>
       <c r="K48">
         <v>17</v>
@@ -4545,23 +4592,24 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C49" s="1">
         <v>36</v>
       </c>
       <c r="D49" s="1">
+        <v>1197</v>
+      </c>
+      <c r="E49" s="1">
         <v>1124</v>
       </c>
-      <c r="E49" s="1">
-        <v>1197</v>
-      </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(59,36,"47",1124,1197));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B49,",",C49,",",G49,A49,G49,",",E49,",",D49,"));")</f>
+        <v>listaPares.add(new Par(68,36,"47",1124,1197));</v>
       </c>
       <c r="K49">
         <v>23</v>
@@ -4581,23 +4629,24 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C50" s="1">
         <v>42</v>
       </c>
       <c r="D50" s="3">
+        <v>1142</v>
+      </c>
+      <c r="E50" s="3">
         <v>1238</v>
       </c>
-      <c r="E50" s="3">
-        <v>1142</v>
-      </c>
       <c r="G50" t="s">
         <v>5</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(59,42,"48",1238,1142));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B50,",",C50,",",G50,A50,G50,",",E50,",",D50,"));")</f>
+        <v>listaPares.add(new Par(68,42,"48",1238,1142));</v>
       </c>
       <c r="K50">
         <v>29</v>
@@ -4617,23 +4666,24 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>48</v>
       </c>
       <c r="D51" s="3">
+        <v>1092</v>
+      </c>
+      <c r="E51" s="3">
         <v>1348</v>
       </c>
-      <c r="E51" s="3">
-        <v>1092</v>
-      </c>
       <c r="G51" t="s">
         <v>5</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(59,48,"49",1348,1092));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B51,",",C51,",",G51,A51,G51,",",E51,",",D51,"));")</f>
+        <v>listaPares.add(new Par(68,48,"49",1348,1092));</v>
       </c>
       <c r="K51">
         <v>35</v>
@@ -4653,23 +4703,24 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>24</v>
       </c>
       <c r="D52" s="3">
+        <v>1154</v>
+      </c>
+      <c r="E52" s="3">
         <v>888</v>
       </c>
-      <c r="E52" s="3">
-        <v>1154</v>
-      </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(65,24,"50",888,1154));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B52,",",C52,",",G52,A52,G52,",",E52,",",D52,"));")</f>
+        <v>listaPares.add(new Par(75,24,"50",888,1154));</v>
       </c>
       <c r="K52">
         <v>41</v>
@@ -4689,23 +4740,24 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C53" s="1">
         <v>30</v>
       </c>
       <c r="D53" s="3">
+        <v>1127</v>
+      </c>
+      <c r="E53" s="3">
         <v>993</v>
       </c>
-      <c r="E53" s="3">
-        <v>1127</v>
-      </c>
       <c r="G53" t="s">
         <v>5</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(65,30,"51",993,1127));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B53,",",C53,",",G53,A53,G53,",",E53,",",D53,"));")</f>
+        <v>listaPares.add(new Par(75,30,"51",993,1127));</v>
       </c>
       <c r="K53">
         <v>47</v>
@@ -4725,23 +4777,24 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C54" s="1">
         <v>36</v>
       </c>
       <c r="D54" s="1">
+        <v>1097</v>
+      </c>
+      <c r="E54" s="1">
         <v>1109</v>
       </c>
-      <c r="E54" s="1">
-        <v>1097</v>
-      </c>
       <c r="G54" t="s">
         <v>5</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(65,36,"52",1109,1097));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B54,",",C54,",",G54,A54,G54,",",E54,",",D54,"));")</f>
+        <v>listaPares.add(new Par(75,36,"52",1109,1097));</v>
       </c>
       <c r="K54">
         <v>53</v>
@@ -4761,23 +4814,24 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C55" s="1">
         <v>42</v>
       </c>
       <c r="D55" s="3">
+        <v>1053</v>
+      </c>
+      <c r="E55" s="3">
         <v>1214</v>
       </c>
-      <c r="E55" s="3">
-        <v>1053</v>
-      </c>
       <c r="G55" t="s">
         <v>5</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(65,42,"53",1214,1053));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B55,",",C55,",",G55,A55,G55,",",E55,",",D55,"));")</f>
+        <v>listaPares.add(new Par(75,42,"53",1214,1053));</v>
       </c>
       <c r="K55">
         <v>59</v>
@@ -4797,23 +4851,24 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>48</v>
       </c>
       <c r="D56" s="3">
+        <v>981</v>
+      </c>
+      <c r="E56" s="3">
         <v>1331</v>
       </c>
-      <c r="E56" s="3">
-        <v>981</v>
-      </c>
       <c r="G56" t="s">
         <v>5</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>listaPares.add(new Par(65,48,"54",1331,981));</v>
+        <f>CONCATENATE("listaPares.add(new Par(",B56,",",C56,",",G56,A56,G56,",",E56,",",D56,"));")</f>
+        <v>listaPares.add(new Par(75,48,"54",1331,981));</v>
       </c>
       <c r="K56">
         <v>65</v>
@@ -4826,6 +4881,52 @@
       </c>
       <c r="N56">
         <v>981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <f>MIN(D2:D56)</f>
+        <v>981</v>
+      </c>
+      <c r="E59">
+        <f>MIN(E2:E56)</f>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <f>MAX(D2:D56)</f>
+        <v>1993</v>
+      </c>
+      <c r="E60">
+        <f>MAX(E2:E56)</f>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f>C70-B70</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f>C71/11</f>
+        <v>6.2727272727272725</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4934,8 @@
     <sortCondition ref="L2:L56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
